--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.15.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.15.0.0/report-checklist.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$240</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$240</definedName>
   </definedNames>
   <calcPr/>
@@ -313,13 +313,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-10-12T14:29:56:00Z</t>
-  </si>
-  <si>
-    <t>63ad8feafd0db96d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.801d325d3027b464d1db4e5495ea0b5e952d9150cc84acb2d031010f87f28aa2.1dfaded450^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-10-18T13:00:40:00Z</t>
+  </si>
+  <si>
+    <t>41f8cf7b72e3d992</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.812d16869f3171178394d5957a9d4b9fe359a3bd3ba9cdb4693b3134f8519f6d.123fe6f46a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Si</t>
@@ -333,13 +333,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-10-12T14:47:18:00Z</t>
-  </si>
-  <si>
-    <t>147ebbda3906cac3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.801d325d3027b464d1db4e5495ea0b5e952d9150cc84acb2d031010f87f28aa2.e45471a5ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-10-18T13:13:25:00Z</t>
+  </si>
+  <si>
+    <t>77126b23ab9d7f96</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.812d16869f3171178394d5957a9d4b9fe359a3bd3ba9cdb4693b3134f8519f6d.8086d08d23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT3</t>
@@ -2647,13 +2647,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-10-12T16:22:43:00</t>
-  </si>
-  <si>
-    <t>a55cf6207c8ce99a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.801d325d3027b464d1db4e5495ea0b5e952d9150cc84acb2d031010f87f28aa2.569b1ee20f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-10-18T13:05:55:00Z</t>
+  </si>
+  <si>
+    <t>fc0c8da45e8823eb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.812d16869f3171178394d5957a9d4b9fe359a3bd3ba9cdb4693b3134f8519f6d.5701ba1cf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -2858,22 +2858,18 @@
     </font>
     <font>
       <sz val="14.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Arial Unicode MS"/>
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Arial Unicode MS"/>
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -2928,108 +2924,108 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -3037,17 +3033,17 @@
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="none"/>
@@ -3057,7 +3053,7 @@
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -3065,35 +3061,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="65"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -3106,46 +3102,46 @@
         <color indexed="65"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -6135,7 +6131,7 @@
       <selection activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="12" width="11.42578125"/>
     <col customWidth="1" min="2" max="2" style="12" width="46.85546875"/>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.15.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.15.0.0/report-checklist.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -374,22 +374,7 @@
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
   <si>
-    <t>2023-10-12T15:02:20:00Z</t>
-  </si>
-  <si>
-    <t>3a80de91d5a1fbe0</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errore JWT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nel software viene visualizzato l'errore “Campo JWT non valido:"piu la descrizione esatta dell'errore ricevuto</t>
+    <t xml:space="preserve">Il token viene sempre e comunque compilato dal software che non ammette campi vuoti in questa fase.</t>
   </si>
   <si>
     <t>KO</t>
@@ -405,10 +390,22 @@
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
-    <t>2023-10-12T14:56:20:00Z</t>
-  </si>
-  <si>
-    <t>5c63142e3ed66d33</t>
+    <t>2023-10-18T17:49:21:00Z</t>
+  </si>
+  <si>
+    <t>0efc41e884f31b6a</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nel software viene visualizzato l'errore “Campo JWT non valido:"piu la descrizione esatta dell'errore ricevuto</t>
   </si>
   <si>
     <t>VALIDAZIONE_RAD_TIMEOUT</t>
@@ -3150,7 +3147,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3321,6 +3318,9 @@
     </xf>
     <xf fontId="2" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6594,45 +6594,29 @@
       <c r="D15" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="49" t="s">
-        <v>79</v>
-      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
       <c r="R15" s="50"/>
       <c r="S15" s="51"/>
       <c r="T15" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" s="42" customFormat="1" ht="142.5">
@@ -6646,47 +6630,47 @@
         <v>54</v>
       </c>
       <c r="D16" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="49" t="s">
         <v>81</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>77</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M16" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O16" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P16" s="49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="49"/>
       <c r="R16" s="50"/>
       <c r="S16" s="51"/>
       <c r="T16" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" s="57" customFormat="1" ht="57">
@@ -6700,41 +6684,41 @@
         <v>54</v>
       </c>
       <c r="D17" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>85</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>86</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
       <c r="J17" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K17" s="49"/>
       <c r="L17" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M17" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N17" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="49" t="s">
         <v>87</v>
-      </c>
-      <c r="O17" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="49" t="s">
-        <v>88</v>
       </c>
       <c r="Q17" s="49"/>
       <c r="R17" s="50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S17" s="51"/>
       <c r="T17" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" s="42" customFormat="1" ht="128.25">
@@ -6748,47 +6732,47 @@
         <v>54</v>
       </c>
       <c r="D18" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="F18" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="G18" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="47" t="s">
+      <c r="I18" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="63" t="s">
         <v>60</v>
       </c>
       <c r="K18" s="49"/>
       <c r="L18" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="61" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="N18" s="62" t="s">
+        <v>93</v>
       </c>
       <c r="O18" s="49" t="s">
         <v>68</v>
       </c>
       <c r="P18" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="49"/>
       <c r="R18" s="50"/>
       <c r="S18" s="51"/>
       <c r="T18" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" s="42" customFormat="1" ht="114">
@@ -6802,10 +6786,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="45" t="s">
         <v>96</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>97</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
@@ -6815,7 +6799,7 @@
         <v>68</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
@@ -6826,7 +6810,7 @@
       <c r="R19" s="50"/>
       <c r="S19" s="51"/>
       <c r="T19" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" s="42" customFormat="1" ht="99.75">
@@ -6840,47 +6824,47 @@
         <v>54</v>
       </c>
       <c r="D20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="F20" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="G20" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="47" t="s">
+      <c r="I20" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>77</v>
+      <c r="J20" s="64" t="s">
+        <v>81</v>
       </c>
       <c r="K20" s="49"/>
       <c r="L20" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M20" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N20" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O20" s="49" t="s">
         <v>68</v>
       </c>
       <c r="P20" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="49"/>
       <c r="R20" s="50"/>
       <c r="S20" s="51"/>
       <c r="T20" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" s="42" customFormat="1" ht="99.75">
@@ -6894,20 +6878,20 @@
         <v>54</v>
       </c>
       <c r="D21" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>104</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>105</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="62" t="s">
-        <v>106</v>
+      <c r="K21" s="63" t="s">
+        <v>105</v>
       </c>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
@@ -6918,7 +6902,7 @@
       <c r="R21" s="50"/>
       <c r="S21" s="51"/>
       <c r="T21" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" s="42" customFormat="1" ht="114">
@@ -6932,20 +6916,20 @@
         <v>54</v>
       </c>
       <c r="D22" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>107</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>108</v>
       </c>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="62" t="s">
-        <v>106</v>
+      <c r="K22" s="63" t="s">
+        <v>105</v>
       </c>
       <c r="L22" s="49"/>
       <c r="M22" s="49"/>
@@ -6956,7 +6940,7 @@
       <c r="R22" s="50"/>
       <c r="S22" s="51"/>
       <c r="T22" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" s="42" customFormat="1" ht="114">
@@ -6970,10 +6954,10 @@
         <v>54</v>
       </c>
       <c r="D23" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>110</v>
       </c>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
@@ -6983,7 +6967,7 @@
         <v>68</v>
       </c>
       <c r="K23" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
@@ -6994,7 +6978,7 @@
       <c r="R23" s="50"/>
       <c r="S23" s="51"/>
       <c r="T23" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" s="42" customFormat="1" ht="114">
@@ -7008,20 +6992,20 @@
         <v>54</v>
       </c>
       <c r="D24" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>112</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
-      <c r="J24" s="64" t="s">
+      <c r="J24" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="64" t="s">
-        <v>113</v>
+      <c r="K24" s="65" t="s">
+        <v>112</v>
       </c>
       <c r="L24" s="49"/>
       <c r="M24" s="49"/>
@@ -7032,7 +7016,7 @@
       <c r="R24" s="50"/>
       <c r="S24" s="51"/>
       <c r="T24" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" s="42" customFormat="1" ht="114">
@@ -7046,10 +7030,10 @@
         <v>54</v>
       </c>
       <c r="D25" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>115</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="55"/>
@@ -7059,7 +7043,7 @@
         <v>68</v>
       </c>
       <c r="K25" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
@@ -7070,7 +7054,7 @@
       <c r="R25" s="50"/>
       <c r="S25" s="51"/>
       <c r="T25" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" s="42" customFormat="1" ht="99.75">
@@ -7084,47 +7068,47 @@
         <v>54</v>
       </c>
       <c r="D26" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="F26" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="G26" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="47" t="s">
+      <c r="I26" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="47" t="s">
-        <v>120</v>
-      </c>
       <c r="J26" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K26" s="49"/>
       <c r="L26" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M26" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O26" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="62" t="s">
-        <v>122</v>
+      <c r="P26" s="63" t="s">
+        <v>121</v>
       </c>
       <c r="Q26" s="49"/>
       <c r="R26" s="50"/>
       <c r="S26" s="51"/>
       <c r="T26" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" s="42" customFormat="1" ht="99.75">
@@ -7138,47 +7122,47 @@
         <v>54</v>
       </c>
       <c r="D27" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="F27" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="G27" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="47" t="s">
+      <c r="I27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="47" t="s">
-        <v>127</v>
-      </c>
       <c r="J27" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K27" s="49"/>
       <c r="L27" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M27" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N27" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O27" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="62" t="s">
-        <v>122</v>
+      <c r="P27" s="63" t="s">
+        <v>121</v>
       </c>
       <c r="Q27" s="49"/>
       <c r="R27" s="50"/>
       <c r="S27" s="51"/>
       <c r="T27" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" s="42" customFormat="1" ht="114">
@@ -7192,47 +7176,47 @@
         <v>54</v>
       </c>
       <c r="D28" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="F28" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="G28" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="47" t="s">
+      <c r="I28" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="47" t="s">
-        <v>132</v>
-      </c>
       <c r="J28" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N28" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O28" s="49" t="s">
         <v>68</v>
       </c>
       <c r="P28" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="49"/>
       <c r="R28" s="50"/>
       <c r="S28" s="51"/>
       <c r="T28" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" ht="114">
@@ -7246,10 +7230,10 @@
         <v>54</v>
       </c>
       <c r="D29" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="66" t="s">
         <v>133</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>134</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
@@ -7259,18 +7243,18 @@
         <v>68</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
       <c r="O29" s="38"/>
-      <c r="P29" s="66"/>
+      <c r="P29" s="67"/>
       <c r="Q29" s="38"/>
       <c r="R29" s="39"/>
-      <c r="S29" s="67"/>
+      <c r="S29" s="68"/>
       <c r="T29" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="128.25">
@@ -7284,10 +7268,10 @@
         <v>54</v>
       </c>
       <c r="D30" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="66" t="s">
         <v>136</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>137</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
@@ -7297,7 +7281,7 @@
         <v>68</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
@@ -7306,9 +7290,9 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
       <c r="R30" s="39"/>
-      <c r="S30" s="67"/>
+      <c r="S30" s="68"/>
       <c r="T30" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" ht="114">
@@ -7322,17 +7306,17 @@
         <v>54</v>
       </c>
       <c r="D31" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="66" t="s">
         <v>138</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>139</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
       <c r="J31" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K31" s="38" t="s">
         <v>69</v>
@@ -7344,9 +7328,9 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="38"/>
       <c r="R31" s="39"/>
-      <c r="S31" s="67"/>
+      <c r="S31" s="68"/>
       <c r="T31" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" ht="99.75">
@@ -7360,10 +7344,10 @@
         <v>54</v>
       </c>
       <c r="D32" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="66" t="s">
         <v>141</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
@@ -7382,9 +7366,9 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="38"/>
       <c r="R32" s="39"/>
-      <c r="S32" s="67"/>
+      <c r="S32" s="68"/>
       <c r="T32" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="99.75">
@@ -7398,17 +7382,17 @@
         <v>54</v>
       </c>
       <c r="D33" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="66" t="s">
         <v>143</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>144</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
       <c r="J33" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K33" s="38" t="s">
         <v>69</v>
@@ -7420,9 +7404,9 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
       <c r="R33" s="39"/>
-      <c r="S33" s="67"/>
+      <c r="S33" s="68"/>
       <c r="T33" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="114">
@@ -7436,17 +7420,17 @@
         <v>54</v>
       </c>
       <c r="D34" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="66" t="s">
         <v>146</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>147</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
       <c r="J34" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34" s="38" t="s">
         <v>69</v>
@@ -7458,9 +7442,9 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="39"/>
-      <c r="S34" s="67"/>
+      <c r="S34" s="68"/>
       <c r="T34" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" ht="114">
@@ -7474,10 +7458,10 @@
         <v>54</v>
       </c>
       <c r="D35" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="66" t="s">
         <v>148</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>149</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
@@ -7487,7 +7471,7 @@
         <v>68</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
@@ -7496,9 +7480,9 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
       <c r="R35" s="39"/>
-      <c r="S35" s="67"/>
+      <c r="S35" s="68"/>
       <c r="T35" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" ht="114">
@@ -7512,10 +7496,10 @@
         <v>54</v>
       </c>
       <c r="D36" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="66" t="s">
         <v>150</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>151</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="37"/>
@@ -7525,7 +7509,7 @@
         <v>68</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
@@ -7534,9 +7518,9 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
       <c r="R36" s="39"/>
-      <c r="S36" s="67"/>
+      <c r="S36" s="68"/>
       <c r="T36" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" ht="15" hidden="1">
@@ -7544,16 +7528,16 @@
         <v>192</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>153</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>154</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="37"/>
@@ -7578,16 +7562,16 @@
         <v>193</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="35" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>157</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="37"/>
@@ -7612,16 +7596,16 @@
         <v>194</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>159</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>160</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="37"/>
@@ -7646,16 +7630,16 @@
         <v>195</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>162</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>163</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="37"/>
@@ -7680,16 +7664,16 @@
         <v>196</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>165</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>166</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="37"/>
@@ -7714,16 +7698,16 @@
         <v>197</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>168</v>
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
@@ -7740,7 +7724,7 @@
       <c r="R42" s="39"/>
       <c r="S42" s="40"/>
       <c r="T42" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" ht="15" hidden="1">
@@ -7748,16 +7732,16 @@
         <v>198</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>169</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>170</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="37"/>
@@ -7774,7 +7758,7 @@
       <c r="R43" s="39"/>
       <c r="S43" s="40"/>
       <c r="T43" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" ht="15" hidden="1">
@@ -7782,16 +7766,16 @@
         <v>199</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>171</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>172</v>
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="37"/>
@@ -7808,7 +7792,7 @@
       <c r="R44" s="39"/>
       <c r="S44" s="40"/>
       <c r="T44" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" ht="15" hidden="1">
@@ -7816,16 +7800,16 @@
         <v>200</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="35" t="s">
         <v>173</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>174</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="37"/>
@@ -7842,7 +7826,7 @@
       <c r="R45" s="39"/>
       <c r="S45" s="40"/>
       <c r="T45" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="15" hidden="1">
@@ -7850,16 +7834,16 @@
         <v>201</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>175</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>176</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="37"/>
@@ -7876,7 +7860,7 @@
       <c r="R46" s="39"/>
       <c r="S46" s="40"/>
       <c r="T46" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="15" hidden="1">
@@ -7884,16 +7868,16 @@
         <v>202</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="35" t="s">
         <v>177</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>178</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="37"/>
@@ -7910,7 +7894,7 @@
       <c r="R47" s="39"/>
       <c r="S47" s="40"/>
       <c r="T47" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="15" hidden="1">
@@ -7918,16 +7902,16 @@
         <v>203</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>179</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>180</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="37"/>
@@ -7944,7 +7928,7 @@
       <c r="R48" s="39"/>
       <c r="S48" s="40"/>
       <c r="T48" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="15" hidden="1">
@@ -7952,16 +7936,16 @@
         <v>204</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>181</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>182</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="37"/>
@@ -7978,7 +7962,7 @@
       <c r="R49" s="39"/>
       <c r="S49" s="40"/>
       <c r="T49" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="15" hidden="1">
@@ -7986,16 +7970,16 @@
         <v>205</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>183</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>184</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="37"/>
@@ -8012,7 +7996,7 @@
       <c r="R50" s="39"/>
       <c r="S50" s="40"/>
       <c r="T50" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" ht="15" hidden="1">
@@ -8020,16 +8004,16 @@
         <v>206</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>185</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>186</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="37"/>
@@ -8046,7 +8030,7 @@
       <c r="R51" s="39"/>
       <c r="S51" s="40"/>
       <c r="T51" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" ht="15" hidden="1">
@@ -8054,16 +8038,16 @@
         <v>207</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="35" t="s">
         <v>187</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>188</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="37"/>
@@ -8080,7 +8064,7 @@
       <c r="R52" s="39"/>
       <c r="S52" s="40"/>
       <c r="T52" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" ht="15" hidden="1">
@@ -8088,16 +8072,16 @@
         <v>208</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="E53" s="35" t="s">
         <v>190</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>191</v>
       </c>
       <c r="F53" s="36"/>
       <c r="G53" s="37"/>
@@ -8122,16 +8106,16 @@
         <v>209</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D54" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="35" t="s">
         <v>192</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>193</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="37"/>
@@ -8156,16 +8140,16 @@
         <v>210</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>194</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="37"/>
@@ -8190,16 +8174,16 @@
         <v>211</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D56" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="35" t="s">
         <v>196</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>197</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="37"/>
@@ -8224,16 +8208,16 @@
         <v>212</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D57" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>198</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>199</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="37"/>
@@ -8258,16 +8242,16 @@
         <v>213</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D58" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="35" t="s">
         <v>200</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>201</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="37"/>
@@ -8284,7 +8268,7 @@
       <c r="R58" s="39"/>
       <c r="S58" s="40"/>
       <c r="T58" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" ht="15" hidden="1">
@@ -8292,16 +8276,16 @@
         <v>214</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="35" t="s">
         <v>202</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>203</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="37"/>
@@ -8318,7 +8302,7 @@
       <c r="R59" s="39"/>
       <c r="S59" s="40"/>
       <c r="T59" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" ht="15" hidden="1">
@@ -8326,16 +8310,16 @@
         <v>215</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>204</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>205</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="37"/>
@@ -8352,7 +8336,7 @@
       <c r="R60" s="39"/>
       <c r="S60" s="40"/>
       <c r="T60" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" ht="15" hidden="1">
@@ -8360,16 +8344,16 @@
         <v>216</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>207</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="37"/>
@@ -8386,7 +8370,7 @@
       <c r="R61" s="39"/>
       <c r="S61" s="40"/>
       <c r="T61" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="15" hidden="1">
@@ -8394,16 +8378,16 @@
         <v>217</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>208</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>209</v>
       </c>
       <c r="F62" s="36"/>
       <c r="G62" s="37"/>
@@ -8420,7 +8404,7 @@
       <c r="R62" s="39"/>
       <c r="S62" s="40"/>
       <c r="T62" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="15" hidden="1">
@@ -8428,16 +8412,16 @@
         <v>218</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>210</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>211</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="37"/>
@@ -8454,7 +8438,7 @@
       <c r="R63" s="39"/>
       <c r="S63" s="40"/>
       <c r="T63" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" ht="15" hidden="1">
@@ -8462,16 +8446,16 @@
         <v>219</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="35" t="s">
         <v>212</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>213</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="37"/>
@@ -8488,7 +8472,7 @@
       <c r="R64" s="39"/>
       <c r="S64" s="40"/>
       <c r="T64" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" ht="15" hidden="1">
@@ -8496,16 +8480,16 @@
         <v>220</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="37"/>
@@ -8522,7 +8506,7 @@
       <c r="R65" s="39"/>
       <c r="S65" s="40"/>
       <c r="T65" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" ht="15" hidden="1">
@@ -8530,16 +8514,16 @@
         <v>221</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="35" t="s">
         <v>215</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>216</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="37"/>
@@ -8556,7 +8540,7 @@
       <c r="R66" s="39"/>
       <c r="S66" s="40"/>
       <c r="T66" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" ht="15" hidden="1">
@@ -8564,16 +8548,16 @@
         <v>222</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" s="35" t="s">
         <v>217</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>218</v>
       </c>
       <c r="F67" s="36"/>
       <c r="G67" s="37"/>
@@ -8590,7 +8574,7 @@
       <c r="R67" s="39"/>
       <c r="S67" s="40"/>
       <c r="T67" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" ht="15" hidden="1">
@@ -8598,16 +8582,16 @@
         <v>223</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="35" t="s">
         <v>219</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>220</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="37"/>
@@ -8624,7 +8608,7 @@
       <c r="R68" s="39"/>
       <c r="S68" s="40"/>
       <c r="T68" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" ht="15" hidden="1">
@@ -8632,16 +8616,16 @@
         <v>224</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D69" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="35" t="s">
         <v>221</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>222</v>
       </c>
       <c r="F69" s="36"/>
       <c r="G69" s="37"/>
@@ -8666,16 +8650,16 @@
         <v>225</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D70" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="35" t="s">
         <v>223</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>224</v>
       </c>
       <c r="F70" s="36"/>
       <c r="G70" s="37"/>
@@ -8700,16 +8684,16 @@
         <v>226</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D71" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="35" t="s">
         <v>225</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>226</v>
       </c>
       <c r="F71" s="36"/>
       <c r="G71" s="37"/>
@@ -8734,16 +8718,16 @@
         <v>227</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" s="35" t="s">
         <v>227</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>228</v>
       </c>
       <c r="F72" s="36"/>
       <c r="G72" s="37"/>
@@ -8768,16 +8752,16 @@
         <v>228</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D73" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="35" t="s">
         <v>229</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>230</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="37"/>
@@ -8802,16 +8786,16 @@
         <v>229</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D74" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>232</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="37"/>
@@ -8828,7 +8812,7 @@
       <c r="R74" s="39"/>
       <c r="S74" s="40"/>
       <c r="T74" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" ht="15" hidden="1">
@@ -8836,16 +8820,16 @@
         <v>230</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D75" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" s="35" t="s">
         <v>233</v>
-      </c>
-      <c r="E75" s="35" t="s">
-        <v>234</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="37"/>
@@ -8862,7 +8846,7 @@
       <c r="R75" s="39"/>
       <c r="S75" s="40"/>
       <c r="T75" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="15" hidden="1">
@@ -8870,16 +8854,16 @@
         <v>231</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D76" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>236</v>
       </c>
       <c r="F76" s="36"/>
       <c r="G76" s="37"/>
@@ -8896,7 +8880,7 @@
       <c r="R76" s="39"/>
       <c r="S76" s="40"/>
       <c r="T76" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" ht="15" hidden="1">
@@ -8904,16 +8888,16 @@
         <v>232</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D77" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="F77" s="36"/>
       <c r="G77" s="37"/>
@@ -8930,7 +8914,7 @@
       <c r="R77" s="39"/>
       <c r="S77" s="40"/>
       <c r="T77" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" ht="15" hidden="1">
@@ -8938,16 +8922,16 @@
         <v>233</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D78" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="35" t="s">
         <v>239</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>240</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="37"/>
@@ -8964,7 +8948,7 @@
       <c r="R78" s="39"/>
       <c r="S78" s="40"/>
       <c r="T78" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" ht="15" hidden="1">
@@ -8972,16 +8956,16 @@
         <v>234</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D79" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E79" s="35" t="s">
         <v>241</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>242</v>
       </c>
       <c r="F79" s="36"/>
       <c r="G79" s="37"/>
@@ -8998,7 +8982,7 @@
       <c r="R79" s="39"/>
       <c r="S79" s="40"/>
       <c r="T79" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" ht="15" hidden="1">
@@ -9006,16 +8990,16 @@
         <v>235</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D80" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="35" t="s">
         <v>243</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>244</v>
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="37"/>
@@ -9032,7 +9016,7 @@
       <c r="R80" s="39"/>
       <c r="S80" s="40"/>
       <c r="T80" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" ht="15" hidden="1">
@@ -9040,16 +9024,16 @@
         <v>236</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F81" s="36"/>
       <c r="G81" s="37"/>
@@ -9066,7 +9050,7 @@
       <c r="R81" s="39"/>
       <c r="S81" s="40"/>
       <c r="T81" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" ht="15" hidden="1">
@@ -9074,16 +9058,16 @@
         <v>237</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D82" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E82" s="35" t="s">
         <v>246</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>247</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="37"/>
@@ -9100,7 +9084,7 @@
       <c r="R82" s="39"/>
       <c r="S82" s="40"/>
       <c r="T82" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" ht="15" hidden="1">
@@ -9108,16 +9092,16 @@
         <v>238</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D83" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="35" t="s">
         <v>248</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>249</v>
       </c>
       <c r="F83" s="36"/>
       <c r="G83" s="37"/>
@@ -9134,7 +9118,7 @@
       <c r="R83" s="39"/>
       <c r="S83" s="40"/>
       <c r="T83" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" ht="15" hidden="1">
@@ -9142,16 +9126,16 @@
         <v>239</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D84" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" s="35" t="s">
         <v>250</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>251</v>
       </c>
       <c r="F84" s="36"/>
       <c r="G84" s="37"/>
@@ -9168,7 +9152,7 @@
       <c r="R84" s="39"/>
       <c r="S84" s="40"/>
       <c r="T84" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" ht="15" hidden="1">
@@ -9176,16 +9160,16 @@
         <v>240</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="E85" s="35" t="s">
         <v>253</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>254</v>
       </c>
       <c r="F85" s="36"/>
       <c r="G85" s="37"/>
@@ -9210,16 +9194,16 @@
         <v>241</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E86" s="35" t="s">
         <v>255</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>256</v>
       </c>
       <c r="F86" s="36"/>
       <c r="G86" s="37"/>
@@ -9244,16 +9228,16 @@
         <v>242</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="35" t="s">
         <v>257</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>258</v>
       </c>
       <c r="F87" s="36"/>
       <c r="G87" s="37"/>
@@ -9278,16 +9262,16 @@
         <v>243</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88" s="35" t="s">
         <v>259</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>260</v>
       </c>
       <c r="F88" s="36"/>
       <c r="G88" s="37"/>
@@ -9312,16 +9296,16 @@
         <v>244</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E89" s="35" t="s">
         <v>261</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>262</v>
       </c>
       <c r="F89" s="36"/>
       <c r="G89" s="37"/>
@@ -9346,16 +9330,16 @@
         <v>245</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" s="35" t="s">
         <v>263</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>264</v>
       </c>
       <c r="F90" s="36"/>
       <c r="G90" s="37"/>
@@ -9372,7 +9356,7 @@
       <c r="R90" s="39"/>
       <c r="S90" s="40"/>
       <c r="T90" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" ht="15" hidden="1">
@@ -9380,16 +9364,16 @@
         <v>246</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="E91" s="35" t="s">
         <v>265</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>266</v>
       </c>
       <c r="F91" s="36"/>
       <c r="G91" s="37"/>
@@ -9406,7 +9390,7 @@
       <c r="R91" s="39"/>
       <c r="S91" s="40"/>
       <c r="T91" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" ht="15" hidden="1">
@@ -9414,16 +9398,16 @@
         <v>247</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" s="35" t="s">
         <v>267</v>
-      </c>
-      <c r="E92" s="35" t="s">
-        <v>268</v>
       </c>
       <c r="F92" s="36"/>
       <c r="G92" s="37"/>
@@ -9440,7 +9424,7 @@
       <c r="R92" s="39"/>
       <c r="S92" s="40"/>
       <c r="T92" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" ht="15" hidden="1">
@@ -9448,16 +9432,16 @@
         <v>248</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" s="35" t="s">
         <v>269</v>
-      </c>
-      <c r="E93" s="35" t="s">
-        <v>270</v>
       </c>
       <c r="F93" s="36"/>
       <c r="G93" s="37"/>
@@ -9474,7 +9458,7 @@
       <c r="R93" s="39"/>
       <c r="S93" s="40"/>
       <c r="T93" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" ht="15" hidden="1">
@@ -9482,16 +9466,16 @@
         <v>249</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D94" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94" s="35" t="s">
         <v>271</v>
-      </c>
-      <c r="E94" s="35" t="s">
-        <v>272</v>
       </c>
       <c r="F94" s="36"/>
       <c r="G94" s="37"/>
@@ -9508,7 +9492,7 @@
       <c r="R94" s="39"/>
       <c r="S94" s="40"/>
       <c r="T94" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="15" hidden="1">
@@ -9516,16 +9500,16 @@
         <v>250</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D95" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" s="35" t="s">
         <v>273</v>
-      </c>
-      <c r="E95" s="35" t="s">
-        <v>274</v>
       </c>
       <c r="F95" s="36"/>
       <c r="G95" s="37"/>
@@ -9542,7 +9526,7 @@
       <c r="R95" s="39"/>
       <c r="S95" s="40"/>
       <c r="T95" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" ht="15" hidden="1">
@@ -9550,16 +9534,16 @@
         <v>251</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D96" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E96" s="35" t="s">
         <v>275</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>276</v>
       </c>
       <c r="F96" s="36"/>
       <c r="G96" s="37"/>
@@ -9576,7 +9560,7 @@
       <c r="R96" s="39"/>
       <c r="S96" s="40"/>
       <c r="T96" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" ht="15" hidden="1">
@@ -9584,16 +9568,16 @@
         <v>252</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D97" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="37"/>
@@ -9610,7 +9594,7 @@
       <c r="R97" s="39"/>
       <c r="S97" s="40"/>
       <c r="T97" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" ht="15" hidden="1">
@@ -9618,16 +9602,16 @@
         <v>253</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D98" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98" s="35" t="s">
         <v>278</v>
-      </c>
-      <c r="E98" s="35" t="s">
-        <v>279</v>
       </c>
       <c r="F98" s="36"/>
       <c r="G98" s="37"/>
@@ -9644,7 +9628,7 @@
       <c r="R98" s="39"/>
       <c r="S98" s="40"/>
       <c r="T98" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" ht="15" hidden="1">
@@ -9652,16 +9636,16 @@
         <v>254</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D99" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E99" s="35" t="s">
         <v>280</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>281</v>
       </c>
       <c r="F99" s="36"/>
       <c r="G99" s="37"/>
@@ -9678,7 +9662,7 @@
       <c r="R99" s="39"/>
       <c r="S99" s="40"/>
       <c r="T99" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" ht="15" hidden="1">
@@ -9686,16 +9670,16 @@
         <v>255</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D100" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E100" s="35" t="s">
         <v>282</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>283</v>
       </c>
       <c r="F100" s="36"/>
       <c r="G100" s="37"/>
@@ -9712,7 +9696,7 @@
       <c r="R100" s="39"/>
       <c r="S100" s="40"/>
       <c r="T100" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" ht="15" hidden="1">
@@ -9720,16 +9704,16 @@
         <v>256</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C101" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="E101" s="35" t="s">
         <v>285</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>286</v>
       </c>
       <c r="F101" s="36"/>
       <c r="G101" s="37"/>
@@ -9754,16 +9738,16 @@
         <v>257</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E102" s="35" t="s">
         <v>287</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>288</v>
       </c>
       <c r="F102" s="36"/>
       <c r="G102" s="37"/>
@@ -9788,16 +9772,16 @@
         <v>258</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="E103" s="35" t="s">
         <v>289</v>
-      </c>
-      <c r="E103" s="35" t="s">
-        <v>290</v>
       </c>
       <c r="F103" s="36"/>
       <c r="G103" s="37"/>
@@ -9822,16 +9806,16 @@
         <v>259</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E104" s="35" t="s">
         <v>291</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>292</v>
       </c>
       <c r="F104" s="36"/>
       <c r="G104" s="37"/>
@@ -9856,16 +9840,16 @@
         <v>260</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E105" s="35" t="s">
         <v>293</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>294</v>
       </c>
       <c r="F105" s="36"/>
       <c r="G105" s="37"/>
@@ -9890,16 +9874,16 @@
         <v>261</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D106" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E106" s="35" t="s">
         <v>295</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>296</v>
       </c>
       <c r="F106" s="36"/>
       <c r="G106" s="37"/>
@@ -9916,7 +9900,7 @@
       <c r="R106" s="39"/>
       <c r="S106" s="40"/>
       <c r="T106" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" ht="15" hidden="1">
@@ -9924,16 +9908,16 @@
         <v>262</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E107" s="35" t="s">
         <v>297</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>298</v>
       </c>
       <c r="F107" s="36"/>
       <c r="G107" s="37"/>
@@ -9950,7 +9934,7 @@
       <c r="R107" s="39"/>
       <c r="S107" s="40"/>
       <c r="T107" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" ht="15" hidden="1">
@@ -9958,16 +9942,16 @@
         <v>263</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D108" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E108" s="35" t="s">
         <v>299</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>300</v>
       </c>
       <c r="F108" s="36"/>
       <c r="G108" s="37"/>
@@ -9984,7 +9968,7 @@
       <c r="R108" s="39"/>
       <c r="S108" s="40"/>
       <c r="T108" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" ht="15" hidden="1">
@@ -9992,16 +9976,16 @@
         <v>264</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D109" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="E109" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="37"/>
@@ -10018,7 +10002,7 @@
       <c r="R109" s="39"/>
       <c r="S109" s="40"/>
       <c r="T109" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" ht="15" hidden="1">
@@ -10026,16 +10010,16 @@
         <v>265</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D110" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E110" s="35" t="s">
         <v>303</v>
-      </c>
-      <c r="E110" s="35" t="s">
-        <v>304</v>
       </c>
       <c r="F110" s="36"/>
       <c r="G110" s="37"/>
@@ -10052,7 +10036,7 @@
       <c r="R110" s="39"/>
       <c r="S110" s="40"/>
       <c r="T110" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" ht="15" hidden="1">
@@ -10060,16 +10044,16 @@
         <v>266</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D111" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="E111" s="35" t="s">
         <v>305</v>
-      </c>
-      <c r="E111" s="35" t="s">
-        <v>306</v>
       </c>
       <c r="F111" s="36"/>
       <c r="G111" s="37"/>
@@ -10086,7 +10070,7 @@
       <c r="R111" s="39"/>
       <c r="S111" s="40"/>
       <c r="T111" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" ht="15" hidden="1">
@@ -10094,16 +10078,16 @@
         <v>267</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D112" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E112" s="35" t="s">
         <v>307</v>
-      </c>
-      <c r="E112" s="35" t="s">
-        <v>308</v>
       </c>
       <c r="F112" s="36"/>
       <c r="G112" s="37"/>
@@ -10120,7 +10104,7 @@
       <c r="R112" s="39"/>
       <c r="S112" s="40"/>
       <c r="T112" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" ht="15" hidden="1">
@@ -10128,16 +10112,16 @@
         <v>268</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F113" s="36"/>
       <c r="G113" s="37"/>
@@ -10154,7 +10138,7 @@
       <c r="R113" s="39"/>
       <c r="S113" s="40"/>
       <c r="T113" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" ht="15" hidden="1">
@@ -10162,16 +10146,16 @@
         <v>269</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D114" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" s="35" t="s">
         <v>310</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>311</v>
       </c>
       <c r="F114" s="36"/>
       <c r="G114" s="37"/>
@@ -10188,7 +10172,7 @@
       <c r="R114" s="39"/>
       <c r="S114" s="40"/>
       <c r="T114" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" ht="15" hidden="1">
@@ -10196,16 +10180,16 @@
         <v>270</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D115" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="E115" s="35" t="s">
         <v>312</v>
-      </c>
-      <c r="E115" s="35" t="s">
-        <v>313</v>
       </c>
       <c r="F115" s="36"/>
       <c r="G115" s="37"/>
@@ -10222,7 +10206,7 @@
       <c r="R115" s="39"/>
       <c r="S115" s="40"/>
       <c r="T115" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" ht="15" hidden="1">
@@ -10230,16 +10214,16 @@
         <v>271</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D116" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="E116" s="35" t="s">
         <v>314</v>
-      </c>
-      <c r="E116" s="35" t="s">
-        <v>315</v>
       </c>
       <c r="F116" s="36"/>
       <c r="G116" s="37"/>
@@ -10256,7 +10240,7 @@
       <c r="R116" s="39"/>
       <c r="S116" s="40"/>
       <c r="T116" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" ht="15" hidden="1">
@@ -10264,16 +10248,16 @@
         <v>272</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C117" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="E117" s="35" t="s">
         <v>317</v>
-      </c>
-      <c r="E117" s="35" t="s">
-        <v>318</v>
       </c>
       <c r="F117" s="36"/>
       <c r="G117" s="37"/>
@@ -10298,16 +10282,16 @@
         <v>273</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="E118" s="35" t="s">
         <v>319</v>
-      </c>
-      <c r="E118" s="35" t="s">
-        <v>320</v>
       </c>
       <c r="F118" s="36"/>
       <c r="G118" s="37"/>
@@ -10332,16 +10316,16 @@
         <v>274</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E119" s="35" t="s">
         <v>321</v>
-      </c>
-      <c r="E119" s="35" t="s">
-        <v>322</v>
       </c>
       <c r="F119" s="36"/>
       <c r="G119" s="37"/>
@@ -10366,16 +10350,16 @@
         <v>275</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D120" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="E120" s="35" t="s">
         <v>323</v>
-      </c>
-      <c r="E120" s="35" t="s">
-        <v>324</v>
       </c>
       <c r="F120" s="36"/>
       <c r="G120" s="37"/>
@@ -10400,16 +10384,16 @@
         <v>276</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D121" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E121" s="35" t="s">
         <v>325</v>
-      </c>
-      <c r="E121" s="35" t="s">
-        <v>326</v>
       </c>
       <c r="F121" s="36"/>
       <c r="G121" s="37"/>
@@ -10434,16 +10418,16 @@
         <v>277</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D122" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="E122" s="35" t="s">
         <v>327</v>
-      </c>
-      <c r="E122" s="35" t="s">
-        <v>328</v>
       </c>
       <c r="F122" s="36"/>
       <c r="G122" s="37"/>
@@ -10460,7 +10444,7 @@
       <c r="R122" s="39"/>
       <c r="S122" s="40"/>
       <c r="T122" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" ht="15" hidden="1">
@@ -10468,16 +10452,16 @@
         <v>278</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D123" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="E123" s="35" t="s">
         <v>329</v>
-      </c>
-      <c r="E123" s="35" t="s">
-        <v>330</v>
       </c>
       <c r="F123" s="36"/>
       <c r="G123" s="37"/>
@@ -10494,7 +10478,7 @@
       <c r="R123" s="39"/>
       <c r="S123" s="40"/>
       <c r="T123" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" ht="15" hidden="1">
@@ -10502,16 +10486,16 @@
         <v>279</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D124" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="35" t="s">
         <v>331</v>
-      </c>
-      <c r="E124" s="35" t="s">
-        <v>332</v>
       </c>
       <c r="F124" s="36"/>
       <c r="G124" s="37"/>
@@ -10528,7 +10512,7 @@
       <c r="R124" s="39"/>
       <c r="S124" s="40"/>
       <c r="T124" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" ht="15" hidden="1">
@@ -10536,16 +10520,16 @@
         <v>280</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D125" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E125" s="35" t="s">
         <v>333</v>
-      </c>
-      <c r="E125" s="35" t="s">
-        <v>334</v>
       </c>
       <c r="F125" s="36"/>
       <c r="G125" s="37"/>
@@ -10562,7 +10546,7 @@
       <c r="R125" s="39"/>
       <c r="S125" s="40"/>
       <c r="T125" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" ht="15" hidden="1">
@@ -10570,16 +10554,16 @@
         <v>281</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D126" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="E126" s="35" t="s">
         <v>335</v>
-      </c>
-      <c r="E126" s="35" t="s">
-        <v>336</v>
       </c>
       <c r="F126" s="36"/>
       <c r="G126" s="37"/>
@@ -10596,7 +10580,7 @@
       <c r="R126" s="39"/>
       <c r="S126" s="40"/>
       <c r="T126" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" ht="15" hidden="1">
@@ -10604,16 +10588,16 @@
         <v>282</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D127" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="E127" s="35" t="s">
         <v>337</v>
-      </c>
-      <c r="E127" s="35" t="s">
-        <v>338</v>
       </c>
       <c r="F127" s="36"/>
       <c r="G127" s="37"/>
@@ -10630,7 +10614,7 @@
       <c r="R127" s="39"/>
       <c r="S127" s="40"/>
       <c r="T127" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" ht="15" hidden="1">
@@ -10638,16 +10622,16 @@
         <v>283</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D128" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" s="35" t="s">
         <v>339</v>
-      </c>
-      <c r="E128" s="35" t="s">
-        <v>340</v>
       </c>
       <c r="F128" s="36"/>
       <c r="G128" s="37"/>
@@ -10664,7 +10648,7 @@
       <c r="R128" s="39"/>
       <c r="S128" s="40"/>
       <c r="T128" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" ht="15" hidden="1">
@@ -10672,16 +10656,16 @@
         <v>284</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D129" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F129" s="36"/>
       <c r="G129" s="37"/>
@@ -10698,7 +10682,7 @@
       <c r="R129" s="39"/>
       <c r="S129" s="40"/>
       <c r="T129" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" ht="15" hidden="1">
@@ -10706,16 +10690,16 @@
         <v>285</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D130" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="E130" s="35" t="s">
         <v>342</v>
-      </c>
-      <c r="E130" s="35" t="s">
-        <v>343</v>
       </c>
       <c r="F130" s="36"/>
       <c r="G130" s="37"/>
@@ -10732,7 +10716,7 @@
       <c r="R130" s="39"/>
       <c r="S130" s="40"/>
       <c r="T130" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" ht="15" hidden="1">
@@ -10740,16 +10724,16 @@
         <v>286</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D131" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="E131" s="35" t="s">
         <v>344</v>
-      </c>
-      <c r="E131" s="35" t="s">
-        <v>345</v>
       </c>
       <c r="F131" s="36"/>
       <c r="G131" s="37"/>
@@ -10766,7 +10750,7 @@
       <c r="R131" s="39"/>
       <c r="S131" s="40"/>
       <c r="T131" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" ht="15" hidden="1">
@@ -10774,16 +10758,16 @@
         <v>287</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D132" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="E132" s="35" t="s">
         <v>346</v>
-      </c>
-      <c r="E132" s="35" t="s">
-        <v>347</v>
       </c>
       <c r="F132" s="36"/>
       <c r="G132" s="37"/>
@@ -10800,7 +10784,7 @@
       <c r="R132" s="39"/>
       <c r="S132" s="40"/>
       <c r="T132" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" ht="15" hidden="1">
@@ -10808,16 +10792,16 @@
         <v>288</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D133" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="D133" s="34" t="s">
+      <c r="E133" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="E133" s="35" t="s">
-        <v>350</v>
       </c>
       <c r="F133" s="36"/>
       <c r="G133" s="37"/>
@@ -10842,16 +10826,16 @@
         <v>289</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D134" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="E134" s="35" t="s">
         <v>351</v>
-      </c>
-      <c r="E134" s="35" t="s">
-        <v>352</v>
       </c>
       <c r="F134" s="36"/>
       <c r="G134" s="37"/>
@@ -10876,16 +10860,16 @@
         <v>290</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D135" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E135" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>354</v>
       </c>
       <c r="F135" s="36"/>
       <c r="G135" s="37"/>
@@ -10910,16 +10894,16 @@
         <v>291</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D136" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="E136" s="35" t="s">
         <v>355</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>356</v>
       </c>
       <c r="F136" s="36"/>
       <c r="G136" s="37"/>
@@ -10944,16 +10928,16 @@
         <v>292</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D137" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="E137" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="E137" s="35" t="s">
-        <v>358</v>
       </c>
       <c r="F137" s="36"/>
       <c r="G137" s="37"/>
@@ -10978,16 +10962,16 @@
         <v>293</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D138" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="E138" s="35" t="s">
         <v>359</v>
-      </c>
-      <c r="E138" s="35" t="s">
-        <v>360</v>
       </c>
       <c r="F138" s="36"/>
       <c r="G138" s="37"/>
@@ -11004,7 +10988,7 @@
       <c r="R138" s="39"/>
       <c r="S138" s="40"/>
       <c r="T138" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" ht="15" hidden="1">
@@ -11012,16 +10996,16 @@
         <v>294</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D139" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="E139" s="35" t="s">
         <v>361</v>
-      </c>
-      <c r="E139" s="35" t="s">
-        <v>362</v>
       </c>
       <c r="F139" s="36"/>
       <c r="G139" s="37"/>
@@ -11038,7 +11022,7 @@
       <c r="R139" s="39"/>
       <c r="S139" s="40"/>
       <c r="T139" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" ht="15" hidden="1">
@@ -11046,16 +11030,16 @@
         <v>295</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D140" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="E140" s="35" t="s">
         <v>363</v>
-      </c>
-      <c r="E140" s="35" t="s">
-        <v>364</v>
       </c>
       <c r="F140" s="36"/>
       <c r="G140" s="37"/>
@@ -11072,7 +11056,7 @@
       <c r="R140" s="39"/>
       <c r="S140" s="40"/>
       <c r="T140" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" ht="15" hidden="1">
@@ -11080,16 +11064,16 @@
         <v>296</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D141" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="E141" s="35" t="s">
         <v>365</v>
-      </c>
-      <c r="E141" s="35" t="s">
-        <v>366</v>
       </c>
       <c r="F141" s="36"/>
       <c r="G141" s="37"/>
@@ -11106,7 +11090,7 @@
       <c r="R141" s="39"/>
       <c r="S141" s="40"/>
       <c r="T141" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" ht="15" hidden="1">
@@ -11114,16 +11098,16 @@
         <v>297</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D142" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="E142" s="35" t="s">
         <v>367</v>
-      </c>
-      <c r="E142" s="35" t="s">
-        <v>368</v>
       </c>
       <c r="F142" s="36"/>
       <c r="G142" s="37"/>
@@ -11140,7 +11124,7 @@
       <c r="R142" s="39"/>
       <c r="S142" s="40"/>
       <c r="T142" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" ht="15" hidden="1">
@@ -11148,16 +11132,16 @@
         <v>298</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D143" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E143" s="35" t="s">
         <v>369</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>370</v>
       </c>
       <c r="F143" s="36"/>
       <c r="G143" s="37"/>
@@ -11174,7 +11158,7 @@
       <c r="R143" s="39"/>
       <c r="S143" s="40"/>
       <c r="T143" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" ht="15" hidden="1">
@@ -11182,16 +11166,16 @@
         <v>299</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D144" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="E144" s="35" t="s">
         <v>371</v>
-      </c>
-      <c r="E144" s="35" t="s">
-        <v>372</v>
       </c>
       <c r="F144" s="36"/>
       <c r="G144" s="37"/>
@@ -11208,7 +11192,7 @@
       <c r="R144" s="39"/>
       <c r="S144" s="40"/>
       <c r="T144" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" ht="15" hidden="1">
@@ -11216,16 +11200,16 @@
         <v>300</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E145" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F145" s="36"/>
       <c r="G145" s="37"/>
@@ -11242,7 +11226,7 @@
       <c r="R145" s="39"/>
       <c r="S145" s="40"/>
       <c r="T145" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" ht="15" hidden="1">
@@ -11250,16 +11234,16 @@
         <v>301</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D146" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E146" s="35" t="s">
         <v>374</v>
-      </c>
-      <c r="E146" s="35" t="s">
-        <v>375</v>
       </c>
       <c r="F146" s="36"/>
       <c r="G146" s="37"/>
@@ -11276,7 +11260,7 @@
       <c r="R146" s="39"/>
       <c r="S146" s="40"/>
       <c r="T146" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" ht="15" hidden="1">
@@ -11284,16 +11268,16 @@
         <v>302</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D147" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="E147" s="35" t="s">
         <v>376</v>
-      </c>
-      <c r="E147" s="35" t="s">
-        <v>377</v>
       </c>
       <c r="F147" s="36"/>
       <c r="G147" s="37"/>
@@ -11310,7 +11294,7 @@
       <c r="R147" s="39"/>
       <c r="S147" s="40"/>
       <c r="T147" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" ht="15" hidden="1">
@@ -11318,16 +11302,16 @@
         <v>303</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D148" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="E148" s="35" t="s">
         <v>378</v>
-      </c>
-      <c r="E148" s="35" t="s">
-        <v>379</v>
       </c>
       <c r="F148" s="36"/>
       <c r="G148" s="37"/>
@@ -11344,7 +11328,7 @@
       <c r="R148" s="39"/>
       <c r="S148" s="40"/>
       <c r="T148" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" ht="15" hidden="1">
@@ -11352,16 +11336,16 @@
         <v>304</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D149" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="D149" s="34" t="s">
+      <c r="E149" s="35" t="s">
         <v>381</v>
-      </c>
-      <c r="E149" s="35" t="s">
-        <v>382</v>
       </c>
       <c r="F149" s="36"/>
       <c r="G149" s="37"/>
@@ -11386,16 +11370,16 @@
         <v>305</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D150" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="E150" s="35" t="s">
         <v>383</v>
-      </c>
-      <c r="E150" s="35" t="s">
-        <v>384</v>
       </c>
       <c r="F150" s="36"/>
       <c r="G150" s="37"/>
@@ -11420,16 +11404,16 @@
         <v>306</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D151" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="E151" s="35" t="s">
         <v>385</v>
-      </c>
-      <c r="E151" s="35" t="s">
-        <v>386</v>
       </c>
       <c r="F151" s="36"/>
       <c r="G151" s="37"/>
@@ -11454,16 +11438,16 @@
         <v>307</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D152" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="E152" s="35" t="s">
         <v>387</v>
-      </c>
-      <c r="E152" s="35" t="s">
-        <v>388</v>
       </c>
       <c r="F152" s="36"/>
       <c r="G152" s="37"/>
@@ -11488,16 +11472,16 @@
         <v>308</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D153" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E153" s="35" t="s">
         <v>389</v>
-      </c>
-      <c r="E153" s="35" t="s">
-        <v>390</v>
       </c>
       <c r="F153" s="36"/>
       <c r="G153" s="37"/>
@@ -11522,16 +11506,16 @@
         <v>309</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D154" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E154" s="35" t="s">
         <v>391</v>
-      </c>
-      <c r="E154" s="35" t="s">
-        <v>392</v>
       </c>
       <c r="F154" s="36"/>
       <c r="G154" s="37"/>
@@ -11548,7 +11532,7 @@
       <c r="R154" s="39"/>
       <c r="S154" s="40"/>
       <c r="T154" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" ht="15" hidden="1">
@@ -11556,16 +11540,16 @@
         <v>310</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D155" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="E155" s="35" t="s">
         <v>393</v>
-      </c>
-      <c r="E155" s="35" t="s">
-        <v>394</v>
       </c>
       <c r="F155" s="36"/>
       <c r="G155" s="37"/>
@@ -11582,7 +11566,7 @@
       <c r="R155" s="39"/>
       <c r="S155" s="40"/>
       <c r="T155" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" ht="15" hidden="1">
@@ -11590,16 +11574,16 @@
         <v>311</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D156" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="E156" s="35" t="s">
         <v>395</v>
-      </c>
-      <c r="E156" s="35" t="s">
-        <v>396</v>
       </c>
       <c r="F156" s="36"/>
       <c r="G156" s="37"/>
@@ -11616,7 +11600,7 @@
       <c r="R156" s="39"/>
       <c r="S156" s="40"/>
       <c r="T156" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" ht="15" hidden="1">
@@ -11624,16 +11608,16 @@
         <v>312</v>
       </c>
       <c r="B157" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D157" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="E157" s="35" t="s">
         <v>397</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>398</v>
       </c>
       <c r="F157" s="36"/>
       <c r="G157" s="37"/>
@@ -11650,7 +11634,7 @@
       <c r="R157" s="39"/>
       <c r="S157" s="40"/>
       <c r="T157" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" ht="15" hidden="1">
@@ -11658,16 +11642,16 @@
         <v>313</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D158" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="E158" s="35" t="s">
         <v>399</v>
-      </c>
-      <c r="E158" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="F158" s="36"/>
       <c r="G158" s="37"/>
@@ -11684,7 +11668,7 @@
       <c r="R158" s="39"/>
       <c r="S158" s="40"/>
       <c r="T158" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" ht="15" hidden="1">
@@ -11692,16 +11676,16 @@
         <v>314</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D159" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="E159" s="35" t="s">
         <v>401</v>
-      </c>
-      <c r="E159" s="35" t="s">
-        <v>402</v>
       </c>
       <c r="F159" s="36"/>
       <c r="G159" s="37"/>
@@ -11718,7 +11702,7 @@
       <c r="R159" s="39"/>
       <c r="S159" s="40"/>
       <c r="T159" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" ht="15" hidden="1">
@@ -11726,16 +11710,16 @@
         <v>315</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D160" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="E160" s="35" t="s">
         <v>403</v>
-      </c>
-      <c r="E160" s="35" t="s">
-        <v>404</v>
       </c>
       <c r="F160" s="36"/>
       <c r="G160" s="37"/>
@@ -11752,7 +11736,7 @@
       <c r="R160" s="39"/>
       <c r="S160" s="40"/>
       <c r="T160" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" ht="15" hidden="1">
@@ -11760,16 +11744,16 @@
         <v>316</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D161" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E161" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F161" s="36"/>
       <c r="G161" s="37"/>
@@ -11786,7 +11770,7 @@
       <c r="R161" s="39"/>
       <c r="S161" s="40"/>
       <c r="T161" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" ht="15" hidden="1">
@@ -11794,16 +11778,16 @@
         <v>317</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D162" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="E162" s="35" t="s">
         <v>406</v>
-      </c>
-      <c r="E162" s="35" t="s">
-        <v>407</v>
       </c>
       <c r="F162" s="36"/>
       <c r="G162" s="37"/>
@@ -11820,7 +11804,7 @@
       <c r="R162" s="39"/>
       <c r="S162" s="40"/>
       <c r="T162" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" ht="15" hidden="1">
@@ -11828,16 +11812,16 @@
         <v>318</v>
       </c>
       <c r="B163" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C163" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D163" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="E163" s="35" t="s">
         <v>408</v>
-      </c>
-      <c r="E163" s="35" t="s">
-        <v>409</v>
       </c>
       <c r="F163" s="36"/>
       <c r="G163" s="37"/>
@@ -11854,7 +11838,7 @@
       <c r="R163" s="39"/>
       <c r="S163" s="40"/>
       <c r="T163" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" ht="15" hidden="1">
@@ -11862,16 +11846,16 @@
         <v>319</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D164" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="E164" s="35" t="s">
         <v>410</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>411</v>
       </c>
       <c r="F164" s="36"/>
       <c r="G164" s="37"/>
@@ -11888,7 +11872,7 @@
       <c r="R164" s="39"/>
       <c r="S164" s="40"/>
       <c r="T164" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" ht="15" hidden="1">
@@ -11896,16 +11880,16 @@
         <v>320</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C165" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D165" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="E165" s="35" t="s">
         <v>412</v>
-      </c>
-      <c r="E165" s="35" t="s">
-        <v>413</v>
       </c>
       <c r="F165" s="36"/>
       <c r="G165" s="37"/>
@@ -11922,7 +11906,7 @@
       <c r="R165" s="39"/>
       <c r="S165" s="40"/>
       <c r="T165" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" ht="15" hidden="1">
@@ -11930,16 +11914,16 @@
         <v>321</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C166" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D166" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="E166" s="35" t="s">
         <v>414</v>
-      </c>
-      <c r="E166" s="35" t="s">
-        <v>415</v>
       </c>
       <c r="F166" s="36"/>
       <c r="G166" s="37"/>
@@ -11956,7 +11940,7 @@
       <c r="R166" s="39"/>
       <c r="S166" s="40"/>
       <c r="T166" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" ht="15" hidden="1">
@@ -11964,16 +11948,16 @@
         <v>322</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C167" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D167" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="E167" s="35" t="s">
         <v>416</v>
-      </c>
-      <c r="E167" s="35" t="s">
-        <v>417</v>
       </c>
       <c r="F167" s="36"/>
       <c r="G167" s="37"/>
@@ -11990,7 +11974,7 @@
       <c r="R167" s="39"/>
       <c r="S167" s="40"/>
       <c r="T167" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" ht="15" hidden="1">
@@ -11998,16 +11982,16 @@
         <v>323</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C168" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D168" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="E168" s="35" t="s">
         <v>418</v>
-      </c>
-      <c r="E168" s="35" t="s">
-        <v>419</v>
       </c>
       <c r="F168" s="36"/>
       <c r="G168" s="37"/>
@@ -12024,7 +12008,7 @@
       <c r="R168" s="39"/>
       <c r="S168" s="40"/>
       <c r="T168" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169" ht="15" hidden="1">
@@ -12032,16 +12016,16 @@
         <v>324</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D169" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E169" s="35" t="s">
         <v>420</v>
-      </c>
-      <c r="E169" s="35" t="s">
-        <v>421</v>
       </c>
       <c r="F169" s="36"/>
       <c r="G169" s="37"/>
@@ -12058,7 +12042,7 @@
       <c r="R169" s="39"/>
       <c r="S169" s="40"/>
       <c r="T169" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" ht="15" hidden="1">
@@ -12066,16 +12050,16 @@
         <v>325</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D170" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="E170" s="35" t="s">
         <v>422</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>423</v>
       </c>
       <c r="F170" s="36"/>
       <c r="G170" s="37"/>
@@ -12092,7 +12076,7 @@
       <c r="R170" s="39"/>
       <c r="S170" s="40"/>
       <c r="T170" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" ht="15" hidden="1">
@@ -12100,16 +12084,16 @@
         <v>326</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D171" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E171" s="35" t="s">
         <v>424</v>
-      </c>
-      <c r="E171" s="35" t="s">
-        <v>425</v>
       </c>
       <c r="F171" s="36"/>
       <c r="G171" s="37"/>
@@ -12126,7 +12110,7 @@
       <c r="R171" s="39"/>
       <c r="S171" s="40"/>
       <c r="T171" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172" ht="15" hidden="1">
@@ -12134,16 +12118,16 @@
         <v>327</v>
       </c>
       <c r="B172" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D172" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="E172" s="35" t="s">
         <v>426</v>
-      </c>
-      <c r="E172" s="35" t="s">
-        <v>427</v>
       </c>
       <c r="F172" s="36"/>
       <c r="G172" s="37"/>
@@ -12160,7 +12144,7 @@
       <c r="R172" s="39"/>
       <c r="S172" s="40"/>
       <c r="T172" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" ht="15" hidden="1">
@@ -12168,16 +12152,16 @@
         <v>328</v>
       </c>
       <c r="B173" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C173" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D173" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="E173" s="35" t="s">
         <v>428</v>
-      </c>
-      <c r="E173" s="35" t="s">
-        <v>429</v>
       </c>
       <c r="F173" s="36"/>
       <c r="G173" s="37"/>
@@ -12194,7 +12178,7 @@
       <c r="R173" s="39"/>
       <c r="S173" s="40"/>
       <c r="T173" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" ht="15" hidden="1">
@@ -12202,16 +12186,16 @@
         <v>329</v>
       </c>
       <c r="B174" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C174" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D174" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="E174" s="35" t="s">
         <v>430</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>431</v>
       </c>
       <c r="F174" s="36"/>
       <c r="G174" s="37"/>
@@ -12228,7 +12212,7 @@
       <c r="R174" s="39"/>
       <c r="S174" s="40"/>
       <c r="T174" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" ht="15" hidden="1">
@@ -12236,16 +12220,16 @@
         <v>330</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C175" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D175" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="E175" s="35" t="s">
         <v>432</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>433</v>
       </c>
       <c r="F175" s="36"/>
       <c r="G175" s="37"/>
@@ -12262,7 +12246,7 @@
       <c r="R175" s="39"/>
       <c r="S175" s="40"/>
       <c r="T175" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" ht="15" hidden="1">
@@ -12270,16 +12254,16 @@
         <v>331</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C176" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D176" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="E176" s="35" t="s">
         <v>434</v>
-      </c>
-      <c r="E176" s="35" t="s">
-        <v>435</v>
       </c>
       <c r="F176" s="36"/>
       <c r="G176" s="37"/>
@@ -12296,7 +12280,7 @@
       <c r="R176" s="39"/>
       <c r="S176" s="40"/>
       <c r="T176" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" ht="15" hidden="1">
@@ -12304,16 +12288,16 @@
         <v>332</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D177" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="E177" s="35" t="s">
         <v>436</v>
-      </c>
-      <c r="E177" s="35" t="s">
-        <v>437</v>
       </c>
       <c r="F177" s="36"/>
       <c r="G177" s="37"/>
@@ -12330,7 +12314,7 @@
       <c r="R177" s="39"/>
       <c r="S177" s="40"/>
       <c r="T177" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" ht="15" hidden="1">
@@ -12338,16 +12322,16 @@
         <v>333</v>
       </c>
       <c r="B178" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D178" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="E178" s="35" t="s">
         <v>438</v>
-      </c>
-      <c r="E178" s="35" t="s">
-        <v>439</v>
       </c>
       <c r="F178" s="36"/>
       <c r="G178" s="37"/>
@@ -12364,7 +12348,7 @@
       <c r="R178" s="39"/>
       <c r="S178" s="40"/>
       <c r="T178" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" ht="15" hidden="1">
@@ -12372,16 +12356,16 @@
         <v>334</v>
       </c>
       <c r="B179" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D179" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="E179" s="35" t="s">
         <v>440</v>
-      </c>
-      <c r="E179" s="35" t="s">
-        <v>441</v>
       </c>
       <c r="F179" s="36"/>
       <c r="G179" s="37"/>
@@ -12398,7 +12382,7 @@
       <c r="R179" s="39"/>
       <c r="S179" s="40"/>
       <c r="T179" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="180" ht="15" hidden="1">
@@ -12406,16 +12390,16 @@
         <v>335</v>
       </c>
       <c r="B180" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D180" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="E180" s="35" t="s">
         <v>442</v>
-      </c>
-      <c r="E180" s="35" t="s">
-        <v>443</v>
       </c>
       <c r="F180" s="36"/>
       <c r="G180" s="37"/>
@@ -12432,7 +12416,7 @@
       <c r="R180" s="39"/>
       <c r="S180" s="40"/>
       <c r="T180" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181" ht="15" hidden="1">
@@ -12440,16 +12424,16 @@
         <v>336</v>
       </c>
       <c r="B181" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D181" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="E181" s="35" t="s">
         <v>444</v>
-      </c>
-      <c r="E181" s="35" t="s">
-        <v>445</v>
       </c>
       <c r="F181" s="36"/>
       <c r="G181" s="37"/>
@@ -12466,7 +12450,7 @@
       <c r="R181" s="39"/>
       <c r="S181" s="40"/>
       <c r="T181" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182" ht="15" hidden="1">
@@ -12474,16 +12458,16 @@
         <v>337</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D182" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="E182" s="35" t="s">
         <v>446</v>
-      </c>
-      <c r="E182" s="35" t="s">
-        <v>447</v>
       </c>
       <c r="F182" s="36"/>
       <c r="G182" s="37"/>
@@ -12500,7 +12484,7 @@
       <c r="R182" s="39"/>
       <c r="S182" s="40"/>
       <c r="T182" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" ht="15" hidden="1">
@@ -12508,16 +12492,16 @@
         <v>338</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C183" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D183" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="E183" s="35" t="s">
         <v>448</v>
-      </c>
-      <c r="E183" s="35" t="s">
-        <v>449</v>
       </c>
       <c r="F183" s="36"/>
       <c r="G183" s="37"/>
@@ -12534,7 +12518,7 @@
       <c r="R183" s="39"/>
       <c r="S183" s="40"/>
       <c r="T183" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" ht="15" hidden="1">
@@ -12542,16 +12526,16 @@
         <v>339</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C184" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D184" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="E184" s="35" t="s">
         <v>450</v>
-      </c>
-      <c r="E184" s="35" t="s">
-        <v>451</v>
       </c>
       <c r="F184" s="36"/>
       <c r="G184" s="37"/>
@@ -12568,7 +12552,7 @@
       <c r="R184" s="39"/>
       <c r="S184" s="40"/>
       <c r="T184" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" ht="15" hidden="1">
@@ -12576,16 +12560,16 @@
         <v>340</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D185" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="E185" s="35" t="s">
         <v>452</v>
-      </c>
-      <c r="E185" s="35" t="s">
-        <v>453</v>
       </c>
       <c r="F185" s="36"/>
       <c r="G185" s="37"/>
@@ -12602,7 +12586,7 @@
       <c r="R185" s="39"/>
       <c r="S185" s="40"/>
       <c r="T185" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" ht="15" hidden="1">
@@ -12610,16 +12594,16 @@
         <v>341</v>
       </c>
       <c r="B186" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C186" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D186" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="E186" s="35" t="s">
         <v>454</v>
-      </c>
-      <c r="E186" s="35" t="s">
-        <v>455</v>
       </c>
       <c r="F186" s="36"/>
       <c r="G186" s="37"/>
@@ -12636,7 +12620,7 @@
       <c r="R186" s="39"/>
       <c r="S186" s="40"/>
       <c r="T186" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" ht="15" hidden="1">
@@ -12644,16 +12628,16 @@
         <v>342</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C187" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D187" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="E187" s="35" t="s">
         <v>456</v>
-      </c>
-      <c r="E187" s="35" t="s">
-        <v>457</v>
       </c>
       <c r="F187" s="36"/>
       <c r="G187" s="37"/>
@@ -12670,7 +12654,7 @@
       <c r="R187" s="39"/>
       <c r="S187" s="40"/>
       <c r="T187" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" ht="15" hidden="1">
@@ -12678,16 +12662,16 @@
         <v>343</v>
       </c>
       <c r="B188" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C188" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D188" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="E188" s="35" t="s">
         <v>458</v>
-      </c>
-      <c r="E188" s="35" t="s">
-        <v>459</v>
       </c>
       <c r="F188" s="36"/>
       <c r="G188" s="37"/>
@@ -12704,7 +12688,7 @@
       <c r="R188" s="39"/>
       <c r="S188" s="40"/>
       <c r="T188" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" ht="15" hidden="1">
@@ -12712,16 +12696,16 @@
         <v>344</v>
       </c>
       <c r="B189" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C189" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D189" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="E189" s="35" t="s">
         <v>460</v>
-      </c>
-      <c r="E189" s="35" t="s">
-        <v>461</v>
       </c>
       <c r="F189" s="36"/>
       <c r="G189" s="37"/>
@@ -12738,7 +12722,7 @@
       <c r="R189" s="39"/>
       <c r="S189" s="40"/>
       <c r="T189" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" ht="15" hidden="1">
@@ -12746,16 +12730,16 @@
         <v>345</v>
       </c>
       <c r="B190" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C190" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D190" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="E190" s="35" t="s">
         <v>462</v>
-      </c>
-      <c r="E190" s="35" t="s">
-        <v>463</v>
       </c>
       <c r="F190" s="36"/>
       <c r="G190" s="37"/>
@@ -12772,7 +12756,7 @@
       <c r="R190" s="39"/>
       <c r="S190" s="40"/>
       <c r="T190" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" ht="15" hidden="1">
@@ -12780,16 +12764,16 @@
         <v>346</v>
       </c>
       <c r="B191" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C191" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D191" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="E191" s="35" t="s">
         <v>464</v>
-      </c>
-      <c r="E191" s="35" t="s">
-        <v>465</v>
       </c>
       <c r="F191" s="36"/>
       <c r="G191" s="37"/>
@@ -12806,7 +12790,7 @@
       <c r="R191" s="39"/>
       <c r="S191" s="40"/>
       <c r="T191" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" ht="15" hidden="1">
@@ -12814,16 +12798,16 @@
         <v>347</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C192" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D192" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="E192" s="35" t="s">
         <v>466</v>
-      </c>
-      <c r="E192" s="35" t="s">
-        <v>467</v>
       </c>
       <c r="F192" s="36"/>
       <c r="G192" s="37"/>
@@ -12840,7 +12824,7 @@
       <c r="R192" s="39"/>
       <c r="S192" s="40"/>
       <c r="T192" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" ht="15" hidden="1">
@@ -12848,16 +12832,16 @@
         <v>348</v>
       </c>
       <c r="B193" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C193" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D193" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="E193" s="35" t="s">
         <v>468</v>
-      </c>
-      <c r="E193" s="35" t="s">
-        <v>469</v>
       </c>
       <c r="F193" s="36"/>
       <c r="G193" s="37"/>
@@ -12874,7 +12858,7 @@
       <c r="R193" s="39"/>
       <c r="S193" s="40"/>
       <c r="T193" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" ht="15" hidden="1">
@@ -12882,16 +12866,16 @@
         <v>349</v>
       </c>
       <c r="B194" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C194" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D194" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="E194" s="35" t="s">
         <v>470</v>
-      </c>
-      <c r="E194" s="35" t="s">
-        <v>471</v>
       </c>
       <c r="F194" s="36"/>
       <c r="G194" s="37"/>
@@ -12908,7 +12892,7 @@
       <c r="R194" s="39"/>
       <c r="S194" s="40"/>
       <c r="T194" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" ht="15" hidden="1">
@@ -12916,16 +12900,16 @@
         <v>350</v>
       </c>
       <c r="B195" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C195" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D195" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E195" s="35" t="s">
         <v>472</v>
-      </c>
-      <c r="E195" s="35" t="s">
-        <v>473</v>
       </c>
       <c r="F195" s="36"/>
       <c r="G195" s="37"/>
@@ -12942,7 +12926,7 @@
       <c r="R195" s="39"/>
       <c r="S195" s="40"/>
       <c r="T195" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" ht="15" hidden="1">
@@ -12950,16 +12934,16 @@
         <v>351</v>
       </c>
       <c r="B196" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D196" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E196" s="35" t="s">
         <v>474</v>
-      </c>
-      <c r="E196" s="35" t="s">
-        <v>475</v>
       </c>
       <c r="F196" s="36"/>
       <c r="G196" s="37"/>
@@ -12976,7 +12960,7 @@
       <c r="R196" s="39"/>
       <c r="S196" s="40"/>
       <c r="T196" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" ht="15" hidden="1">
@@ -12984,16 +12968,16 @@
         <v>352</v>
       </c>
       <c r="B197" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C197" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D197" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="E197" s="35" t="s">
         <v>476</v>
-      </c>
-      <c r="E197" s="35" t="s">
-        <v>477</v>
       </c>
       <c r="F197" s="36"/>
       <c r="G197" s="37"/>
@@ -13010,7 +12994,7 @@
       <c r="R197" s="39"/>
       <c r="S197" s="40"/>
       <c r="T197" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="198" ht="15" hidden="1">
@@ -13018,16 +13002,16 @@
         <v>353</v>
       </c>
       <c r="B198" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C198" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D198" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="E198" s="35" t="s">
         <v>478</v>
-      </c>
-      <c r="E198" s="35" t="s">
-        <v>479</v>
       </c>
       <c r="F198" s="36"/>
       <c r="G198" s="37"/>
@@ -13044,7 +13028,7 @@
       <c r="R198" s="39"/>
       <c r="S198" s="40"/>
       <c r="T198" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" ht="15" hidden="1">
@@ -13052,16 +13036,16 @@
         <v>354</v>
       </c>
       <c r="B199" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C199" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D199" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="E199" s="35" t="s">
         <v>480</v>
-      </c>
-      <c r="E199" s="35" t="s">
-        <v>481</v>
       </c>
       <c r="F199" s="36"/>
       <c r="G199" s="37"/>
@@ -13078,7 +13062,7 @@
       <c r="R199" s="39"/>
       <c r="S199" s="40"/>
       <c r="T199" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" ht="15" hidden="1">
@@ -13086,16 +13070,16 @@
         <v>355</v>
       </c>
       <c r="B200" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C200" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D200" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="E200" s="35" t="s">
         <v>482</v>
-      </c>
-      <c r="E200" s="35" t="s">
-        <v>483</v>
       </c>
       <c r="F200" s="36"/>
       <c r="G200" s="37"/>
@@ -13112,7 +13096,7 @@
       <c r="R200" s="39"/>
       <c r="S200" s="40"/>
       <c r="T200" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201" ht="15" hidden="1">
@@ -13120,16 +13104,16 @@
         <v>356</v>
       </c>
       <c r="B201" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C201" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D201" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="E201" s="35" t="s">
         <v>484</v>
-      </c>
-      <c r="E201" s="35" t="s">
-        <v>485</v>
       </c>
       <c r="F201" s="36"/>
       <c r="G201" s="37"/>
@@ -13146,7 +13130,7 @@
       <c r="R201" s="39"/>
       <c r="S201" s="40"/>
       <c r="T201" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" ht="15" hidden="1">
@@ -13154,16 +13138,16 @@
         <v>357</v>
       </c>
       <c r="B202" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C202" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D202" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="E202" s="35" t="s">
         <v>486</v>
-      </c>
-      <c r="E202" s="35" t="s">
-        <v>487</v>
       </c>
       <c r="F202" s="36"/>
       <c r="G202" s="37"/>
@@ -13180,7 +13164,7 @@
       <c r="R202" s="39"/>
       <c r="S202" s="40"/>
       <c r="T202" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" ht="15" hidden="1">
@@ -13188,16 +13172,16 @@
         <v>358</v>
       </c>
       <c r="B203" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C203" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D203" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="E203" s="35" t="s">
         <v>488</v>
-      </c>
-      <c r="E203" s="35" t="s">
-        <v>489</v>
       </c>
       <c r="F203" s="36"/>
       <c r="G203" s="37"/>
@@ -13214,7 +13198,7 @@
       <c r="R203" s="39"/>
       <c r="S203" s="40"/>
       <c r="T203" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" ht="15" hidden="1">
@@ -13222,16 +13206,16 @@
         <v>359</v>
       </c>
       <c r="B204" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C204" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D204" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="E204" s="35" t="s">
         <v>490</v>
-      </c>
-      <c r="E204" s="35" t="s">
-        <v>491</v>
       </c>
       <c r="F204" s="36"/>
       <c r="G204" s="37"/>
@@ -13248,7 +13232,7 @@
       <c r="R204" s="39"/>
       <c r="S204" s="40"/>
       <c r="T204" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" ht="15" hidden="1">
@@ -13256,16 +13240,16 @@
         <v>360</v>
       </c>
       <c r="B205" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C205" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D205" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="E205" s="35" t="s">
         <v>492</v>
-      </c>
-      <c r="E205" s="35" t="s">
-        <v>493</v>
       </c>
       <c r="F205" s="36"/>
       <c r="G205" s="37"/>
@@ -13282,7 +13266,7 @@
       <c r="R205" s="39"/>
       <c r="S205" s="40"/>
       <c r="T205" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206" ht="15" hidden="1">
@@ -13290,16 +13274,16 @@
         <v>361</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C206" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D206" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="E206" s="35" t="s">
         <v>494</v>
-      </c>
-      <c r="E206" s="35" t="s">
-        <v>495</v>
       </c>
       <c r="F206" s="36"/>
       <c r="G206" s="37"/>
@@ -13316,7 +13300,7 @@
       <c r="R206" s="39"/>
       <c r="S206" s="40"/>
       <c r="T206" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="207" ht="15" hidden="1">
@@ -13324,16 +13308,16 @@
         <v>362</v>
       </c>
       <c r="B207" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C207" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D207" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="E207" s="35" t="s">
         <v>496</v>
-      </c>
-      <c r="E207" s="35" t="s">
-        <v>497</v>
       </c>
       <c r="F207" s="36"/>
       <c r="G207" s="37"/>
@@ -13350,7 +13334,7 @@
       <c r="R207" s="39"/>
       <c r="S207" s="40"/>
       <c r="T207" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208" ht="15" hidden="1">
@@ -13358,16 +13342,16 @@
         <v>363</v>
       </c>
       <c r="B208" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C208" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D208" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="E208" s="35" t="s">
         <v>498</v>
-      </c>
-      <c r="E208" s="35" t="s">
-        <v>499</v>
       </c>
       <c r="F208" s="36"/>
       <c r="G208" s="37"/>
@@ -13384,7 +13368,7 @@
       <c r="R208" s="39"/>
       <c r="S208" s="40"/>
       <c r="T208" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="209" ht="15" hidden="1">
@@ -13392,16 +13376,16 @@
         <v>364</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C209" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D209" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="E209" s="35" t="s">
         <v>500</v>
-      </c>
-      <c r="E209" s="35" t="s">
-        <v>501</v>
       </c>
       <c r="F209" s="36"/>
       <c r="G209" s="37"/>
@@ -13418,7 +13402,7 @@
       <c r="R209" s="39"/>
       <c r="S209" s="40"/>
       <c r="T209" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210" ht="15" hidden="1">
@@ -13426,16 +13410,16 @@
         <v>365</v>
       </c>
       <c r="B210" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C210" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D210" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="E210" s="35" t="s">
         <v>502</v>
-      </c>
-      <c r="E210" s="35" t="s">
-        <v>503</v>
       </c>
       <c r="F210" s="36"/>
       <c r="G210" s="37"/>
@@ -13452,7 +13436,7 @@
       <c r="R210" s="39"/>
       <c r="S210" s="40"/>
       <c r="T210" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" ht="15" hidden="1">
@@ -13460,16 +13444,16 @@
         <v>366</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C211" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D211" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="E211" s="35" t="s">
         <v>504</v>
-      </c>
-      <c r="E211" s="35" t="s">
-        <v>505</v>
       </c>
       <c r="F211" s="36"/>
       <c r="G211" s="37"/>
@@ -13486,7 +13470,7 @@
       <c r="R211" s="39"/>
       <c r="S211" s="40"/>
       <c r="T211" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" ht="15" hidden="1">
@@ -13494,16 +13478,16 @@
         <v>367</v>
       </c>
       <c r="B212" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C212" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D212" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="E212" s="35" t="s">
         <v>506</v>
-      </c>
-      <c r="E212" s="35" t="s">
-        <v>507</v>
       </c>
       <c r="F212" s="36"/>
       <c r="G212" s="37"/>
@@ -13520,7 +13504,7 @@
       <c r="R212" s="39"/>
       <c r="S212" s="40"/>
       <c r="T212" s="41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" ht="15">
@@ -13534,25 +13518,25 @@
         <v>54</v>
       </c>
       <c r="D213" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="E213" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="E213" s="65" t="s">
+      <c r="F213" s="69" t="s">
         <v>509</v>
       </c>
-      <c r="F213" s="68" t="s">
+      <c r="G213" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="H213" s="70" t="s">
         <v>510</v>
       </c>
-      <c r="G213" s="68" t="s">
-        <v>510</v>
-      </c>
-      <c r="H213" s="69" t="s">
+      <c r="I213" s="70" t="s">
         <v>511</v>
       </c>
-      <c r="I213" s="69" t="s">
-        <v>512</v>
-      </c>
       <c r="J213" s="38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K213" s="38"/>
       <c r="L213" s="38"/>
@@ -13562,7 +13546,7 @@
       <c r="P213" s="38"/>
       <c r="Q213" s="38"/>
       <c r="R213" s="39"/>
-      <c r="S213" s="67"/>
+      <c r="S213" s="68"/>
       <c r="T213" s="41" t="s">
         <v>52</v>
       </c>
@@ -13572,11 +13556,11 @@
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="68"/>
-      <c r="G214" s="68"/>
-      <c r="H214" s="69"/>
-      <c r="I214" s="69"/>
+      <c r="E214" s="66"/>
+      <c r="F214" s="69"/>
+      <c r="G214" s="69"/>
+      <c r="H214" s="70"/>
+      <c r="I214" s="70"/>
       <c r="J214" s="38"/>
       <c r="K214" s="38"/>
       <c r="L214" s="38"/>
@@ -13586,7 +13570,7 @@
       <c r="P214" s="38"/>
       <c r="Q214" s="38"/>
       <c r="R214" s="39"/>
-      <c r="S214" s="67"/>
+      <c r="S214" s="68"/>
       <c r="T214" s="41"/>
     </row>
     <row r="215" ht="15" hidden="1">
@@ -13594,11 +13578,11 @@
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
-      <c r="E215" s="65"/>
-      <c r="F215" s="68"/>
-      <c r="G215" s="68"/>
-      <c r="H215" s="69"/>
-      <c r="I215" s="69"/>
+      <c r="E215" s="66"/>
+      <c r="F215" s="69"/>
+      <c r="G215" s="69"/>
+      <c r="H215" s="70"/>
+      <c r="I215" s="70"/>
       <c r="J215" s="38"/>
       <c r="K215" s="38"/>
       <c r="L215" s="38"/>
@@ -13608,7 +13592,7 @@
       <c r="P215" s="38"/>
       <c r="Q215" s="38"/>
       <c r="R215" s="39"/>
-      <c r="S215" s="67"/>
+      <c r="S215" s="68"/>
       <c r="T215" s="41"/>
     </row>
     <row r="216" ht="15" hidden="1">
@@ -13616,9 +13600,9 @@
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
-      <c r="E216" s="65"/>
-      <c r="F216" s="68"/>
-      <c r="G216" s="68"/>
+      <c r="E216" s="66"/>
+      <c r="F216" s="69"/>
+      <c r="G216" s="69"/>
       <c r="H216" s="37"/>
       <c r="I216" s="37"/>
       <c r="J216" s="38"/>
@@ -13630,7 +13614,7 @@
       <c r="P216" s="38"/>
       <c r="Q216" s="38"/>
       <c r="R216" s="39"/>
-      <c r="S216" s="67"/>
+      <c r="S216" s="68"/>
       <c r="T216" s="41"/>
     </row>
     <row r="217" ht="15" hidden="1">
@@ -13638,11 +13622,11 @@
       <c r="B217" s="34"/>
       <c r="C217" s="34"/>
       <c r="D217" s="34"/>
-      <c r="E217" s="65"/>
-      <c r="F217" s="68"/>
-      <c r="G217" s="68"/>
-      <c r="H217" s="69"/>
-      <c r="I217" s="69"/>
+      <c r="E217" s="66"/>
+      <c r="F217" s="69"/>
+      <c r="G217" s="69"/>
+      <c r="H217" s="70"/>
+      <c r="I217" s="70"/>
       <c r="J217" s="38"/>
       <c r="K217" s="38"/>
       <c r="L217" s="38"/>
@@ -13652,7 +13636,7 @@
       <c r="P217" s="38"/>
       <c r="Q217" s="38"/>
       <c r="R217" s="39"/>
-      <c r="S217" s="67"/>
+      <c r="S217" s="68"/>
       <c r="T217" s="41"/>
     </row>
     <row r="218" ht="15" hidden="1">
@@ -13660,13 +13644,13 @@
       <c r="B218" s="34"/>
       <c r="C218" s="34"/>
       <c r="D218" s="34"/>
-      <c r="E218" s="65"/>
+      <c r="E218" s="66"/>
       <c r="F218" s="36"/>
       <c r="G218" s="37"/>
       <c r="H218" s="37"/>
       <c r="I218" s="37"/>
       <c r="J218" s="38"/>
-      <c r="K218" s="70"/>
+      <c r="K218" s="71"/>
       <c r="L218" s="38"/>
       <c r="M218" s="38"/>
       <c r="N218" s="38"/>
@@ -13674,7 +13658,7 @@
       <c r="P218" s="38"/>
       <c r="Q218" s="38"/>
       <c r="R218" s="39"/>
-      <c r="S218" s="67"/>
+      <c r="S218" s="68"/>
       <c r="T218" s="41"/>
     </row>
     <row r="219" ht="15" hidden="1">
@@ -13682,13 +13666,13 @@
       <c r="B219" s="34"/>
       <c r="C219" s="34"/>
       <c r="D219" s="34"/>
-      <c r="E219" s="65"/>
+      <c r="E219" s="66"/>
       <c r="F219" s="36"/>
       <c r="G219" s="37"/>
       <c r="H219" s="37"/>
       <c r="I219" s="37"/>
       <c r="J219" s="38"/>
-      <c r="K219" s="70"/>
+      <c r="K219" s="71"/>
       <c r="L219" s="38"/>
       <c r="M219" s="38"/>
       <c r="N219" s="38"/>
@@ -13696,7 +13680,7 @@
       <c r="P219" s="38"/>
       <c r="Q219" s="38"/>
       <c r="R219" s="39"/>
-      <c r="S219" s="67"/>
+      <c r="S219" s="68"/>
       <c r="T219" s="41"/>
     </row>
     <row r="220" ht="15" hidden="1">
@@ -13704,13 +13688,13 @@
       <c r="B220" s="34"/>
       <c r="C220" s="34"/>
       <c r="D220" s="34"/>
-      <c r="E220" s="65"/>
+      <c r="E220" s="66"/>
       <c r="F220" s="36"/>
       <c r="G220" s="37"/>
       <c r="H220" s="37"/>
       <c r="I220" s="37"/>
       <c r="J220" s="38"/>
-      <c r="K220" s="70"/>
+      <c r="K220" s="71"/>
       <c r="L220" s="38"/>
       <c r="M220" s="38"/>
       <c r="N220" s="38"/>
@@ -13718,7 +13702,7 @@
       <c r="P220" s="38"/>
       <c r="Q220" s="38"/>
       <c r="R220" s="39"/>
-      <c r="S220" s="67"/>
+      <c r="S220" s="68"/>
       <c r="T220" s="41"/>
     </row>
     <row r="221" ht="15" hidden="1">
@@ -13726,11 +13710,11 @@
       <c r="B221" s="34"/>
       <c r="C221" s="34"/>
       <c r="D221" s="34"/>
-      <c r="E221" s="65"/>
-      <c r="F221" s="68"/>
-      <c r="G221" s="68"/>
-      <c r="H221" s="69"/>
-      <c r="I221" s="69"/>
+      <c r="E221" s="66"/>
+      <c r="F221" s="69"/>
+      <c r="G221" s="69"/>
+      <c r="H221" s="70"/>
+      <c r="I221" s="70"/>
       <c r="J221" s="38"/>
       <c r="K221" s="38"/>
       <c r="L221" s="38"/>
@@ -13740,7 +13724,7 @@
       <c r="P221" s="38"/>
       <c r="Q221" s="38"/>
       <c r="R221" s="39"/>
-      <c r="S221" s="67"/>
+      <c r="S221" s="68"/>
       <c r="T221" s="41"/>
     </row>
     <row r="222" ht="15" hidden="1">
@@ -13748,11 +13732,11 @@
       <c r="B222" s="34"/>
       <c r="C222" s="34"/>
       <c r="D222" s="34"/>
-      <c r="E222" s="65"/>
-      <c r="F222" s="68"/>
-      <c r="G222" s="68"/>
-      <c r="H222" s="69"/>
-      <c r="I222" s="69"/>
+      <c r="E222" s="66"/>
+      <c r="F222" s="69"/>
+      <c r="G222" s="69"/>
+      <c r="H222" s="70"/>
+      <c r="I222" s="70"/>
       <c r="J222" s="38"/>
       <c r="K222" s="38"/>
       <c r="L222" s="38"/>
@@ -13762,7 +13746,7 @@
       <c r="P222" s="38"/>
       <c r="Q222" s="38"/>
       <c r="R222" s="39"/>
-      <c r="S222" s="67"/>
+      <c r="S222" s="68"/>
       <c r="T222" s="41"/>
     </row>
     <row r="223" ht="15" hidden="1">
@@ -13770,11 +13754,11 @@
       <c r="B223" s="34"/>
       <c r="C223" s="34"/>
       <c r="D223" s="34"/>
-      <c r="E223" s="65"/>
-      <c r="F223" s="68"/>
-      <c r="G223" s="68"/>
-      <c r="H223" s="69"/>
-      <c r="I223" s="69"/>
+      <c r="E223" s="66"/>
+      <c r="F223" s="69"/>
+      <c r="G223" s="69"/>
+      <c r="H223" s="70"/>
+      <c r="I223" s="70"/>
       <c r="J223" s="38"/>
       <c r="K223" s="38"/>
       <c r="L223" s="38"/>
@@ -13784,7 +13768,7 @@
       <c r="P223" s="38"/>
       <c r="Q223" s="38"/>
       <c r="R223" s="39"/>
-      <c r="S223" s="67"/>
+      <c r="S223" s="68"/>
       <c r="T223" s="41"/>
     </row>
     <row r="224" ht="15" hidden="1">
@@ -13792,11 +13776,11 @@
       <c r="B224" s="34"/>
       <c r="C224" s="34"/>
       <c r="D224" s="34"/>
-      <c r="E224" s="65"/>
-      <c r="F224" s="68"/>
-      <c r="G224" s="68"/>
-      <c r="H224" s="69"/>
-      <c r="I224" s="69"/>
+      <c r="E224" s="66"/>
+      <c r="F224" s="69"/>
+      <c r="G224" s="69"/>
+      <c r="H224" s="70"/>
+      <c r="I224" s="70"/>
       <c r="J224" s="38"/>
       <c r="K224" s="38"/>
       <c r="L224" s="38"/>
@@ -13806,7 +13790,7 @@
       <c r="P224" s="38"/>
       <c r="Q224" s="38"/>
       <c r="R224" s="39"/>
-      <c r="S224" s="67"/>
+      <c r="S224" s="68"/>
       <c r="T224" s="41"/>
     </row>
     <row r="225" ht="15" hidden="1">
@@ -13814,11 +13798,11 @@
       <c r="B225" s="34"/>
       <c r="C225" s="34"/>
       <c r="D225" s="34"/>
-      <c r="E225" s="65"/>
-      <c r="F225" s="68"/>
-      <c r="G225" s="68"/>
-      <c r="H225" s="69"/>
-      <c r="I225" s="69"/>
+      <c r="E225" s="66"/>
+      <c r="F225" s="69"/>
+      <c r="G225" s="69"/>
+      <c r="H225" s="70"/>
+      <c r="I225" s="70"/>
       <c r="J225" s="38"/>
       <c r="K225" s="38"/>
       <c r="L225" s="38"/>
@@ -13828,7 +13812,7 @@
       <c r="P225" s="38"/>
       <c r="Q225" s="38"/>
       <c r="R225" s="39"/>
-      <c r="S225" s="67"/>
+      <c r="S225" s="68"/>
       <c r="T225" s="41"/>
     </row>
     <row r="226" ht="15" hidden="1">
@@ -13836,11 +13820,11 @@
       <c r="B226" s="34"/>
       <c r="C226" s="34"/>
       <c r="D226" s="34"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="68"/>
-      <c r="G226" s="68"/>
-      <c r="H226" s="69"/>
-      <c r="I226" s="69"/>
+      <c r="E226" s="66"/>
+      <c r="F226" s="69"/>
+      <c r="G226" s="69"/>
+      <c r="H226" s="70"/>
+      <c r="I226" s="70"/>
       <c r="J226" s="38"/>
       <c r="K226" s="38"/>
       <c r="L226" s="38"/>
@@ -13850,7 +13834,7 @@
       <c r="P226" s="38"/>
       <c r="Q226" s="38"/>
       <c r="R226" s="39"/>
-      <c r="S226" s="67"/>
+      <c r="S226" s="68"/>
       <c r="T226" s="41"/>
     </row>
     <row r="227" ht="15" hidden="1">
@@ -13858,7 +13842,7 @@
       <c r="B227" s="34"/>
       <c r="C227" s="34"/>
       <c r="D227" s="34"/>
-      <c r="E227" s="65"/>
+      <c r="E227" s="66"/>
       <c r="F227" s="36"/>
       <c r="G227" s="37"/>
       <c r="H227" s="37"/>
@@ -13872,7 +13856,7 @@
       <c r="P227" s="38"/>
       <c r="Q227" s="38"/>
       <c r="R227" s="39"/>
-      <c r="S227" s="67"/>
+      <c r="S227" s="68"/>
       <c r="T227" s="41"/>
     </row>
     <row r="228" ht="15" hidden="1">
@@ -13880,11 +13864,11 @@
       <c r="B228" s="34"/>
       <c r="C228" s="34"/>
       <c r="D228" s="34"/>
-      <c r="E228" s="65"/>
-      <c r="F228" s="68"/>
-      <c r="G228" s="68"/>
-      <c r="H228" s="69"/>
-      <c r="I228" s="69"/>
+      <c r="E228" s="66"/>
+      <c r="F228" s="69"/>
+      <c r="G228" s="69"/>
+      <c r="H228" s="70"/>
+      <c r="I228" s="70"/>
       <c r="J228" s="38"/>
       <c r="K228" s="38"/>
       <c r="L228" s="38"/>
@@ -13894,7 +13878,7 @@
       <c r="P228" s="38"/>
       <c r="Q228" s="38"/>
       <c r="R228" s="39"/>
-      <c r="S228" s="67"/>
+      <c r="S228" s="68"/>
       <c r="T228" s="41"/>
     </row>
     <row r="229" ht="15" hidden="1">
@@ -13902,11 +13886,11 @@
       <c r="B229" s="34"/>
       <c r="C229" s="34"/>
       <c r="D229" s="34"/>
-      <c r="E229" s="65"/>
-      <c r="F229" s="68"/>
-      <c r="G229" s="68"/>
-      <c r="H229" s="69"/>
-      <c r="I229" s="69"/>
+      <c r="E229" s="66"/>
+      <c r="F229" s="69"/>
+      <c r="G229" s="69"/>
+      <c r="H229" s="70"/>
+      <c r="I229" s="70"/>
       <c r="J229" s="38"/>
       <c r="K229" s="38"/>
       <c r="L229" s="38"/>
@@ -13916,7 +13900,7 @@
       <c r="P229" s="38"/>
       <c r="Q229" s="38"/>
       <c r="R229" s="39"/>
-      <c r="S229" s="67"/>
+      <c r="S229" s="68"/>
       <c r="T229" s="41"/>
     </row>
     <row r="230" ht="15" hidden="1">
@@ -13924,11 +13908,11 @@
       <c r="B230" s="34"/>
       <c r="C230" s="34"/>
       <c r="D230" s="34"/>
-      <c r="E230" s="65"/>
-      <c r="F230" s="68"/>
-      <c r="G230" s="68"/>
-      <c r="H230" s="69"/>
-      <c r="I230" s="69"/>
+      <c r="E230" s="66"/>
+      <c r="F230" s="69"/>
+      <c r="G230" s="69"/>
+      <c r="H230" s="70"/>
+      <c r="I230" s="70"/>
       <c r="J230" s="38"/>
       <c r="K230" s="38"/>
       <c r="L230" s="38"/>
@@ -13938,7 +13922,7 @@
       <c r="P230" s="38"/>
       <c r="Q230" s="38"/>
       <c r="R230" s="39"/>
-      <c r="S230" s="67"/>
+      <c r="S230" s="68"/>
       <c r="T230" s="41"/>
     </row>
     <row r="231" ht="15" hidden="1">
@@ -13946,11 +13930,11 @@
       <c r="B231" s="34"/>
       <c r="C231" s="34"/>
       <c r="D231" s="34"/>
-      <c r="E231" s="65"/>
-      <c r="F231" s="68"/>
-      <c r="G231" s="68"/>
-      <c r="H231" s="69"/>
-      <c r="I231" s="69"/>
+      <c r="E231" s="66"/>
+      <c r="F231" s="69"/>
+      <c r="G231" s="69"/>
+      <c r="H231" s="70"/>
+      <c r="I231" s="70"/>
       <c r="J231" s="38"/>
       <c r="K231" s="38"/>
       <c r="L231" s="38"/>
@@ -13960,7 +13944,7 @@
       <c r="P231" s="38"/>
       <c r="Q231" s="38"/>
       <c r="R231" s="39"/>
-      <c r="S231" s="67"/>
+      <c r="S231" s="68"/>
       <c r="T231" s="41"/>
     </row>
     <row r="232" ht="15" hidden="1">
@@ -13968,7 +13952,7 @@
       <c r="B232" s="34"/>
       <c r="C232" s="34"/>
       <c r="D232" s="34"/>
-      <c r="E232" s="65"/>
+      <c r="E232" s="66"/>
       <c r="F232" s="36"/>
       <c r="G232" s="37"/>
       <c r="H232" s="37"/>
@@ -13982,7 +13966,7 @@
       <c r="P232" s="38"/>
       <c r="Q232" s="38"/>
       <c r="R232" s="39"/>
-      <c r="S232" s="67"/>
+      <c r="S232" s="68"/>
       <c r="T232" s="41"/>
     </row>
     <row r="233" ht="15" hidden="1">
@@ -13990,11 +13974,11 @@
       <c r="B233" s="34"/>
       <c r="C233" s="34"/>
       <c r="D233" s="34"/>
-      <c r="E233" s="65"/>
-      <c r="F233" s="68"/>
-      <c r="G233" s="68"/>
-      <c r="H233" s="69"/>
-      <c r="I233" s="69"/>
+      <c r="E233" s="66"/>
+      <c r="F233" s="69"/>
+      <c r="G233" s="69"/>
+      <c r="H233" s="70"/>
+      <c r="I233" s="70"/>
       <c r="J233" s="38"/>
       <c r="K233" s="38"/>
       <c r="L233" s="38"/>
@@ -14004,7 +13988,7 @@
       <c r="P233" s="38"/>
       <c r="Q233" s="38"/>
       <c r="R233" s="39"/>
-      <c r="S233" s="67"/>
+      <c r="S233" s="68"/>
       <c r="T233" s="41"/>
     </row>
     <row r="234" ht="15" hidden="1">
@@ -14012,7 +13996,7 @@
       <c r="B234" s="34"/>
       <c r="C234" s="34"/>
       <c r="D234" s="34"/>
-      <c r="E234" s="65"/>
+      <c r="E234" s="66"/>
       <c r="F234" s="36"/>
       <c r="G234" s="37"/>
       <c r="H234" s="37"/>
@@ -14026,7 +14010,7 @@
       <c r="P234" s="38"/>
       <c r="Q234" s="38"/>
       <c r="R234" s="39"/>
-      <c r="S234" s="67"/>
+      <c r="S234" s="68"/>
       <c r="T234" s="41"/>
     </row>
     <row r="235" ht="15" hidden="1">
@@ -14034,7 +14018,7 @@
       <c r="B235" s="34"/>
       <c r="C235" s="34"/>
       <c r="D235" s="34"/>
-      <c r="E235" s="65"/>
+      <c r="E235" s="66"/>
       <c r="F235" s="36"/>
       <c r="G235" s="37"/>
       <c r="H235" s="37"/>
@@ -14048,7 +14032,7 @@
       <c r="P235" s="38"/>
       <c r="Q235" s="38"/>
       <c r="R235" s="39"/>
-      <c r="S235" s="67"/>
+      <c r="S235" s="68"/>
       <c r="T235" s="41"/>
     </row>
     <row r="236" ht="15" hidden="1">
@@ -14056,7 +14040,7 @@
       <c r="B236" s="34"/>
       <c r="C236" s="34"/>
       <c r="D236" s="34"/>
-      <c r="E236" s="65"/>
+      <c r="E236" s="66"/>
       <c r="F236" s="36"/>
       <c r="G236" s="37"/>
       <c r="H236" s="37"/>
@@ -14070,7 +14054,7 @@
       <c r="P236" s="38"/>
       <c r="Q236" s="38"/>
       <c r="R236" s="39"/>
-      <c r="S236" s="67"/>
+      <c r="S236" s="68"/>
       <c r="T236" s="41"/>
     </row>
     <row r="237" ht="15" hidden="1">
@@ -14078,7 +14062,7 @@
       <c r="B237" s="34"/>
       <c r="C237" s="34"/>
       <c r="D237" s="34"/>
-      <c r="E237" s="65"/>
+      <c r="E237" s="66"/>
       <c r="F237" s="36"/>
       <c r="G237" s="37"/>
       <c r="H237" s="37"/>
@@ -14092,7 +14076,7 @@
       <c r="P237" s="38"/>
       <c r="Q237" s="38"/>
       <c r="R237" s="39"/>
-      <c r="S237" s="67"/>
+      <c r="S237" s="68"/>
       <c r="T237" s="41"/>
     </row>
     <row r="238" ht="15" hidden="1">
@@ -14100,7 +14084,7 @@
       <c r="B238" s="34"/>
       <c r="C238" s="34"/>
       <c r="D238" s="34"/>
-      <c r="E238" s="65"/>
+      <c r="E238" s="66"/>
       <c r="F238" s="36"/>
       <c r="G238" s="37"/>
       <c r="H238" s="37"/>
@@ -14114,7 +14098,7 @@
       <c r="P238" s="38"/>
       <c r="Q238" s="38"/>
       <c r="R238" s="39"/>
-      <c r="S238" s="67"/>
+      <c r="S238" s="68"/>
       <c r="T238" s="41"/>
     </row>
     <row r="239" ht="15" hidden="1">
@@ -14122,11 +14106,11 @@
       <c r="B239" s="34"/>
       <c r="C239" s="34"/>
       <c r="D239" s="34"/>
-      <c r="E239" s="65"/>
-      <c r="F239" s="68"/>
-      <c r="G239" s="68"/>
-      <c r="H239" s="69"/>
-      <c r="I239" s="69"/>
+      <c r="E239" s="66"/>
+      <c r="F239" s="69"/>
+      <c r="G239" s="69"/>
+      <c r="H239" s="70"/>
+      <c r="I239" s="70"/>
       <c r="J239" s="38"/>
       <c r="K239" s="38"/>
       <c r="L239" s="38"/>
@@ -14136,7 +14120,7 @@
       <c r="P239" s="38"/>
       <c r="Q239" s="38"/>
       <c r="R239" s="39"/>
-      <c r="S239" s="67"/>
+      <c r="S239" s="68"/>
       <c r="T239" s="41"/>
     </row>
     <row r="240" ht="15" hidden="1">
@@ -14144,11 +14128,11 @@
       <c r="B240" s="34"/>
       <c r="C240" s="34"/>
       <c r="D240" s="34"/>
-      <c r="E240" s="65"/>
-      <c r="F240" s="68"/>
-      <c r="G240" s="68"/>
-      <c r="H240" s="69"/>
-      <c r="I240" s="69"/>
+      <c r="E240" s="66"/>
+      <c r="F240" s="69"/>
+      <c r="G240" s="69"/>
+      <c r="H240" s="70"/>
+      <c r="I240" s="70"/>
       <c r="J240" s="38"/>
       <c r="K240" s="38"/>
       <c r="L240" s="38"/>
@@ -14158,7 +14142,7 @@
       <c r="P240" s="38"/>
       <c r="Q240" s="38"/>
       <c r="R240" s="39"/>
-      <c r="S240" s="67"/>
+      <c r="S240" s="68"/>
       <c r="T240" s="41"/>
     </row>
     <row r="241" ht="15">
@@ -18417,17 +18401,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="72" t="s">
         <v>513</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -18435,27 +18419,27 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="D2" s="73" t="s">
         <v>516</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="73" t="s">
         <v>518</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -18463,97 +18447,97 @@
         <v>54</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="74" t="s">
         <v>520</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="D5" s="73" t="s">
         <v>522</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C6" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" s="74" t="s">
         <v>524</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>526</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C8" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>527</v>
+      </c>
+      <c r="D8" s="74" t="s">
         <v>528</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>529</v>
+      </c>
+      <c r="D9" s="74" t="s">
         <v>530</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="10" ht="42.75">
       <c r="A10" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="73" t="s">
+      <c r="D10" s="73" t="s">
         <v>533</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -18561,27 +18545,27 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C11" s="73">
+        <v>192</v>
+      </c>
+      <c r="D11" s="73" t="s">
         <v>535</v>
-      </c>
-      <c r="C11" s="72">
-        <v>192</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C12" s="72">
+        <v>534</v>
+      </c>
+      <c r="C12" s="73">
         <v>208</v>
       </c>
-      <c r="D12" s="72" t="s">
-        <v>537</v>
+      <c r="D12" s="73" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -18589,83 +18573,83 @@
         <v>54</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C13" s="72">
+        <v>534</v>
+      </c>
+      <c r="C13" s="73">
         <v>224</v>
       </c>
-      <c r="D13" s="73" t="s">
-        <v>538</v>
+      <c r="D13" s="74" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C14" s="72">
+        <v>534</v>
+      </c>
+      <c r="C14" s="73">
         <v>240</v>
       </c>
-      <c r="D14" s="72" t="s">
-        <v>539</v>
+      <c r="D14" s="73" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C15" s="72">
+        <v>534</v>
+      </c>
+      <c r="C15" s="73">
         <v>256</v>
       </c>
-      <c r="D15" s="73" t="s">
-        <v>540</v>
+      <c r="D15" s="74" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C16" s="72">
+        <v>534</v>
+      </c>
+      <c r="C16" s="73">
         <v>272</v>
       </c>
-      <c r="D16" s="73" t="s">
-        <v>541</v>
+      <c r="D16" s="74" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C17" s="72">
+        <v>534</v>
+      </c>
+      <c r="C17" s="73">
         <v>288</v>
       </c>
-      <c r="D17" s="73" t="s">
-        <v>542</v>
+      <c r="D17" s="74" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C18" s="72">
+        <v>534</v>
+      </c>
+      <c r="C18" s="73">
         <v>304</v>
       </c>
-      <c r="D18" s="73" t="s">
-        <v>543</v>
+      <c r="D18" s="74" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -18673,27 +18657,27 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="73">
+        <v>193</v>
+      </c>
+      <c r="D19" s="73" t="s">
         <v>544</v>
-      </c>
-      <c r="C19" s="72">
-        <v>193</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C20" s="72">
+        <v>543</v>
+      </c>
+      <c r="C20" s="73">
         <v>209</v>
       </c>
-      <c r="D20" s="72" t="s">
-        <v>546</v>
+      <c r="D20" s="73" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -18701,83 +18685,83 @@
         <v>54</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C21" s="72">
+        <v>543</v>
+      </c>
+      <c r="C21" s="73">
         <v>225</v>
       </c>
-      <c r="D21" s="73" t="s">
-        <v>547</v>
+      <c r="D21" s="74" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C22" s="72">
+        <v>543</v>
+      </c>
+      <c r="C22" s="73">
         <v>241</v>
       </c>
-      <c r="D22" s="72" t="s">
-        <v>548</v>
+      <c r="D22" s="73" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C23" s="72">
+        <v>543</v>
+      </c>
+      <c r="C23" s="73">
         <v>257</v>
       </c>
-      <c r="D23" s="73" t="s">
-        <v>549</v>
+      <c r="D23" s="74" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C24" s="72">
+        <v>543</v>
+      </c>
+      <c r="C24" s="73">
         <v>273</v>
       </c>
-      <c r="D24" s="73" t="s">
-        <v>550</v>
+      <c r="D24" s="74" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C25" s="72">
+        <v>543</v>
+      </c>
+      <c r="C25" s="73">
         <v>289</v>
       </c>
-      <c r="D25" s="73" t="s">
-        <v>551</v>
+      <c r="D25" s="74" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C26" s="72">
+        <v>543</v>
+      </c>
+      <c r="C26" s="73">
         <v>305</v>
       </c>
-      <c r="D26" s="73" t="s">
-        <v>552</v>
+      <c r="D26" s="74" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -18785,27 +18769,27 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C27" s="73">
+        <v>194</v>
+      </c>
+      <c r="D27" s="73" t="s">
         <v>553</v>
-      </c>
-      <c r="C27" s="72">
-        <v>194</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C28" s="72">
+        <v>552</v>
+      </c>
+      <c r="C28" s="73">
         <v>210</v>
       </c>
-      <c r="D28" s="72" t="s">
-        <v>555</v>
+      <c r="D28" s="73" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -18813,83 +18797,83 @@
         <v>54</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C29" s="72">
+        <v>552</v>
+      </c>
+      <c r="C29" s="73">
         <v>226</v>
       </c>
-      <c r="D29" s="74" t="s">
-        <v>556</v>
+      <c r="D29" s="75" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C30" s="72">
+        <v>552</v>
+      </c>
+      <c r="C30" s="73">
         <v>242</v>
       </c>
-      <c r="D30" s="72" t="s">
-        <v>557</v>
+      <c r="D30" s="73" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C31" s="72">
+        <v>552</v>
+      </c>
+      <c r="C31" s="73">
         <v>258</v>
       </c>
-      <c r="D31" s="73" t="s">
-        <v>558</v>
+      <c r="D31" s="74" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C32" s="72">
+        <v>552</v>
+      </c>
+      <c r="C32" s="73">
         <v>274</v>
       </c>
-      <c r="D32" s="73" t="s">
-        <v>559</v>
+      <c r="D32" s="74" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C33" s="72">
+        <v>552</v>
+      </c>
+      <c r="C33" s="73">
         <v>290</v>
       </c>
-      <c r="D33" s="73" t="s">
-        <v>560</v>
+      <c r="D33" s="74" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C34" s="72">
+        <v>552</v>
+      </c>
+      <c r="C34" s="73">
         <v>306</v>
       </c>
-      <c r="D34" s="73" t="s">
-        <v>561</v>
+      <c r="D34" s="74" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -18897,26 +18881,26 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C35" s="72">
+        <v>561</v>
+      </c>
+      <c r="C35" s="73">
         <v>195</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="73">
         <v>204</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C36" s="72">
+        <v>561</v>
+      </c>
+      <c r="C36" s="73">
         <v>211</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="73">
         <v>220</v>
       </c>
     </row>
@@ -18925,82 +18909,82 @@
         <v>54</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C37" s="72">
+        <v>561</v>
+      </c>
+      <c r="C37" s="73">
         <v>227</v>
       </c>
-      <c r="D37" s="73">
+      <c r="D37" s="74">
         <v>236</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C38" s="72">
+        <v>561</v>
+      </c>
+      <c r="C38" s="73">
         <v>243</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="73">
         <v>252</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C39" s="72">
+        <v>561</v>
+      </c>
+      <c r="C39" s="73">
         <v>259</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="74">
         <v>268</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C40" s="72">
+        <v>561</v>
+      </c>
+      <c r="C40" s="73">
         <v>275</v>
       </c>
-      <c r="D40" s="73">
+      <c r="D40" s="74">
         <v>284</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C41" s="72">
+        <v>561</v>
+      </c>
+      <c r="C41" s="73">
         <v>291</v>
       </c>
-      <c r="D41" s="73">
+      <c r="D41" s="74">
         <v>300</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C42" s="72">
+        <v>561</v>
+      </c>
+      <c r="C42" s="73">
         <v>307</v>
       </c>
-      <c r="D42" s="73">
+      <c r="D42" s="74">
         <v>316</v>
       </c>
     </row>
@@ -19009,26 +18993,26 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C43" s="72">
+        <v>562</v>
+      </c>
+      <c r="C43" s="73">
         <v>196</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="73">
         <v>207</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C44" s="72">
+        <v>562</v>
+      </c>
+      <c r="C44" s="73">
         <v>212</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="73">
         <v>223</v>
       </c>
     </row>
@@ -19037,82 +19021,82 @@
         <v>54</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C45" s="72">
+        <v>562</v>
+      </c>
+      <c r="C45" s="73">
         <v>228</v>
       </c>
-      <c r="D45" s="73">
+      <c r="D45" s="74">
         <v>239</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C46" s="72">
+        <v>562</v>
+      </c>
+      <c r="C46" s="73">
         <v>244</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="73">
         <v>255</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C47" s="72">
+        <v>562</v>
+      </c>
+      <c r="C47" s="73">
         <v>260</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="74">
         <v>271</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C48" s="72">
+        <v>562</v>
+      </c>
+      <c r="C48" s="73">
         <v>276</v>
       </c>
-      <c r="D48" s="73">
+      <c r="D48" s="74">
         <v>287</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C49" s="72">
+        <v>562</v>
+      </c>
+      <c r="C49" s="73">
         <v>292</v>
       </c>
-      <c r="D49" s="73">
+      <c r="D49" s="74">
         <v>303</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C50" s="72">
+        <v>562</v>
+      </c>
+      <c r="C50" s="73">
         <v>308</v>
       </c>
-      <c r="D50" s="73">
+      <c r="D50" s="74">
         <v>319</v>
       </c>
     </row>
@@ -20098,15 +20082,15 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>68</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.15.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-RAD/3.15.0.0/report-checklist.xlsx
@@ -405,7 +405,10 @@
     <t xml:space="preserve">Errore JWT</t>
   </si>
   <si>
-    <t xml:space="preserve">Nel software viene visualizzato l'errore “Campo JWT non valido:"piu la descrizione esatta dell'errore ricevuto</t>
+    <t xml:space="preserve">Nel software viene visualizzato l'errore “Campo JWT non valido:"piu la descrizione esatta dell'errore ricevuto,
+l'utente (medico) può ancora generare nuovi documenti CDA2, tuttavia, non sarà in grado di trasmetterli fino a quando non sarà effettuato
+un intervento di correzione dei campi del token jwt che riportano un errata configurazione.
+I documenti generati vengono memorizzati in una lista di lavoro dedicata, in attesa di un nuovo invio.</t>
   </si>
   <si>
     <t>VALIDAZIONE_RAD_TIMEOUT</t>
@@ -418,7 +421,9 @@
     <t xml:space="preserve">Errore Timeout</t>
   </si>
   <si>
-    <t xml:space="preserve">Nel caso di TimeOut viene segnalato all'utente tramite messaggio a video l'impossibilità di invio del referto.</t>
+    <t xml:space="preserve">Nel caso di TimeOut viene segnalato all'utente tramite messaggio a video l'impossibilità di invio del referto.
+Il documento generato viene memorizzato in una lista di lavoro dedicata, in attesa di un nuovo invio.
+Il reinvio viene gestito manualmente dall' operatore.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
@@ -3147,7 +3152,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3318,9 +3323,6 @@
     </xf>
     <xf fontId="2" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6594,13 +6596,13 @@
       <c r="D15" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="49" t="s">
         <v>68</v>
       </c>
@@ -6619,7 +6621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" s="42" customFormat="1" ht="142.5">
+    <row r="16" s="42" customFormat="1" ht="185.25">
       <c r="A16" s="43">
         <v>39</v>
       </c>
@@ -6673,7 +6675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="57" customFormat="1" ht="57">
+    <row r="17" s="57" customFormat="1" ht="114">
       <c r="A17" s="58">
         <v>47</v>
       </c>
@@ -6749,7 +6751,7 @@
       <c r="I18" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="62" t="s">
         <v>60</v>
       </c>
       <c r="K18" s="49"/>
@@ -6759,7 +6761,7 @@
       <c r="M18" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="62" t="s">
+      <c r="N18" s="61" t="s">
         <v>93</v>
       </c>
       <c r="O18" s="49" t="s">
@@ -6841,7 +6843,7 @@
       <c r="I20" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="63" t="s">
         <v>81</v>
       </c>
       <c r="K20" s="49"/>
@@ -6887,10 +6889,10 @@
       <c r="G21" s="46"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="62" t="s">
         <v>105</v>
       </c>
       <c r="L21" s="49"/>
@@ -6925,10 +6927,10 @@
       <c r="G22" s="46"/>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="63" t="s">
+      <c r="K22" s="62" t="s">
         <v>105</v>
       </c>
       <c r="L22" s="49"/>
@@ -7001,10 +7003,10 @@
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="64" t="s">
         <v>112</v>
       </c>
       <c r="L24" s="49"/>
@@ -7101,7 +7103,7 @@
       <c r="O26" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="63" t="s">
+      <c r="P26" s="62" t="s">
         <v>121</v>
       </c>
       <c r="Q26" s="49"/>
@@ -7155,7 +7157,7 @@
       <c r="O27" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="63" t="s">
+      <c r="P27" s="62" t="s">
         <v>121</v>
       </c>
       <c r="Q27" s="49"/>
@@ -7232,7 +7234,7 @@
       <c r="D29" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="65" t="s">
         <v>133</v>
       </c>
       <c r="F29" s="36"/>
@@ -7249,10 +7251,10 @@
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
       <c r="O29" s="38"/>
-      <c r="P29" s="67"/>
+      <c r="P29" s="66"/>
       <c r="Q29" s="38"/>
       <c r="R29" s="39"/>
-      <c r="S29" s="68"/>
+      <c r="S29" s="67"/>
       <c r="T29" s="41" t="s">
         <v>75</v>
       </c>
@@ -7270,7 +7272,7 @@
       <c r="D30" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="65" t="s">
         <v>136</v>
       </c>
       <c r="F30" s="36"/>
@@ -7290,7 +7292,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
       <c r="R30" s="39"/>
-      <c r="S30" s="68"/>
+      <c r="S30" s="67"/>
       <c r="T30" s="41" t="s">
         <v>75</v>
       </c>
@@ -7308,7 +7310,7 @@
       <c r="D31" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="65" t="s">
         <v>138</v>
       </c>
       <c r="F31" s="36"/>
@@ -7328,7 +7330,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="38"/>
       <c r="R31" s="39"/>
-      <c r="S31" s="68"/>
+      <c r="S31" s="67"/>
       <c r="T31" s="41" t="s">
         <v>75</v>
       </c>
@@ -7346,7 +7348,7 @@
       <c r="D32" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="65" t="s">
         <v>141</v>
       </c>
       <c r="F32" s="36"/>
@@ -7366,7 +7368,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="38"/>
       <c r="R32" s="39"/>
-      <c r="S32" s="68"/>
+      <c r="S32" s="67"/>
       <c r="T32" s="41" t="s">
         <v>75</v>
       </c>
@@ -7384,7 +7386,7 @@
       <c r="D33" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="65" t="s">
         <v>143</v>
       </c>
       <c r="F33" s="36"/>
@@ -7404,7 +7406,7 @@
       <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
       <c r="R33" s="39"/>
-      <c r="S33" s="68"/>
+      <c r="S33" s="67"/>
       <c r="T33" s="41" t="s">
         <v>75</v>
       </c>
@@ -7422,7 +7424,7 @@
       <c r="D34" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="65" t="s">
         <v>146</v>
       </c>
       <c r="F34" s="36"/>
@@ -7442,7 +7444,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="39"/>
-      <c r="S34" s="68"/>
+      <c r="S34" s="67"/>
       <c r="T34" s="41" t="s">
         <v>75</v>
       </c>
@@ -7460,7 +7462,7 @@
       <c r="D35" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="65" t="s">
         <v>148</v>
       </c>
       <c r="F35" s="36"/>
@@ -7480,7 +7482,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
       <c r="R35" s="39"/>
-      <c r="S35" s="68"/>
+      <c r="S35" s="67"/>
       <c r="T35" s="41" t="s">
         <v>75</v>
       </c>
@@ -7498,7 +7500,7 @@
       <c r="D36" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="65" t="s">
         <v>150</v>
       </c>
       <c r="F36" s="36"/>
@@ -7518,7 +7520,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
       <c r="R36" s="39"/>
-      <c r="S36" s="68"/>
+      <c r="S36" s="67"/>
       <c r="T36" s="41" t="s">
         <v>75</v>
       </c>
@@ -13520,19 +13522,19 @@
       <c r="D213" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="E213" s="66" t="s">
+      <c r="E213" s="65" t="s">
         <v>508</v>
       </c>
-      <c r="F213" s="69" t="s">
+      <c r="F213" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="G213" s="69" t="s">
+      <c r="G213" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="H213" s="70" t="s">
+      <c r="H213" s="69" t="s">
         <v>510</v>
       </c>
-      <c r="I213" s="70" t="s">
+      <c r="I213" s="69" t="s">
         <v>511</v>
       </c>
       <c r="J213" s="38" t="s">
@@ -13546,7 +13548,7 @@
       <c r="P213" s="38"/>
       <c r="Q213" s="38"/>
       <c r="R213" s="39"/>
-      <c r="S213" s="68"/>
+      <c r="S213" s="67"/>
       <c r="T213" s="41" t="s">
         <v>52</v>
       </c>
@@ -13556,11 +13558,11 @@
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
-      <c r="E214" s="66"/>
-      <c r="F214" s="69"/>
-      <c r="G214" s="69"/>
-      <c r="H214" s="70"/>
-      <c r="I214" s="70"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="68"/>
+      <c r="G214" s="68"/>
+      <c r="H214" s="69"/>
+      <c r="I214" s="69"/>
       <c r="J214" s="38"/>
       <c r="K214" s="38"/>
       <c r="L214" s="38"/>
@@ -13570,7 +13572,7 @@
       <c r="P214" s="38"/>
       <c r="Q214" s="38"/>
       <c r="R214" s="39"/>
-      <c r="S214" s="68"/>
+      <c r="S214" s="67"/>
       <c r="T214" s="41"/>
     </row>
     <row r="215" ht="15" hidden="1">
@@ -13578,11 +13580,11 @@
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
-      <c r="E215" s="66"/>
-      <c r="F215" s="69"/>
-      <c r="G215" s="69"/>
-      <c r="H215" s="70"/>
-      <c r="I215" s="70"/>
+      <c r="E215" s="65"/>
+      <c r="F215" s="68"/>
+      <c r="G215" s="68"/>
+      <c r="H215" s="69"/>
+      <c r="I215" s="69"/>
       <c r="J215" s="38"/>
       <c r="K215" s="38"/>
       <c r="L215" s="38"/>
@@ -13592,7 +13594,7 @@
       <c r="P215" s="38"/>
       <c r="Q215" s="38"/>
       <c r="R215" s="39"/>
-      <c r="S215" s="68"/>
+      <c r="S215" s="67"/>
       <c r="T215" s="41"/>
     </row>
     <row r="216" ht="15" hidden="1">
@@ -13600,9 +13602,9 @@
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
-      <c r="E216" s="66"/>
-      <c r="F216" s="69"/>
-      <c r="G216" s="69"/>
+      <c r="E216" s="65"/>
+      <c r="F216" s="68"/>
+      <c r="G216" s="68"/>
       <c r="H216" s="37"/>
       <c r="I216" s="37"/>
       <c r="J216" s="38"/>
@@ -13614,7 +13616,7 @@
       <c r="P216" s="38"/>
       <c r="Q216" s="38"/>
       <c r="R216" s="39"/>
-      <c r="S216" s="68"/>
+      <c r="S216" s="67"/>
       <c r="T216" s="41"/>
     </row>
     <row r="217" ht="15" hidden="1">
@@ -13622,11 +13624,11 @@
       <c r="B217" s="34"/>
       <c r="C217" s="34"/>
       <c r="D217" s="34"/>
-      <c r="E217" s="66"/>
-      <c r="F217" s="69"/>
-      <c r="G217" s="69"/>
-      <c r="H217" s="70"/>
-      <c r="I217" s="70"/>
+      <c r="E217" s="65"/>
+      <c r="F217" s="68"/>
+      <c r="G217" s="68"/>
+      <c r="H217" s="69"/>
+      <c r="I217" s="69"/>
       <c r="J217" s="38"/>
       <c r="K217" s="38"/>
       <c r="L217" s="38"/>
@@ -13636,7 +13638,7 @@
       <c r="P217" s="38"/>
       <c r="Q217" s="38"/>
       <c r="R217" s="39"/>
-      <c r="S217" s="68"/>
+      <c r="S217" s="67"/>
       <c r="T217" s="41"/>
     </row>
     <row r="218" ht="15" hidden="1">
@@ -13644,13 +13646,13 @@
       <c r="B218" s="34"/>
       <c r="C218" s="34"/>
       <c r="D218" s="34"/>
-      <c r="E218" s="66"/>
+      <c r="E218" s="65"/>
       <c r="F218" s="36"/>
       <c r="G218" s="37"/>
       <c r="H218" s="37"/>
       <c r="I218" s="37"/>
       <c r="J218" s="38"/>
-      <c r="K218" s="71"/>
+      <c r="K218" s="70"/>
       <c r="L218" s="38"/>
       <c r="M218" s="38"/>
       <c r="N218" s="38"/>
@@ -13658,7 +13660,7 @@
       <c r="P218" s="38"/>
       <c r="Q218" s="38"/>
       <c r="R218" s="39"/>
-      <c r="S218" s="68"/>
+      <c r="S218" s="67"/>
       <c r="T218" s="41"/>
     </row>
     <row r="219" ht="15" hidden="1">
@@ -13666,13 +13668,13 @@
       <c r="B219" s="34"/>
       <c r="C219" s="34"/>
       <c r="D219" s="34"/>
-      <c r="E219" s="66"/>
+      <c r="E219" s="65"/>
       <c r="F219" s="36"/>
       <c r="G219" s="37"/>
       <c r="H219" s="37"/>
       <c r="I219" s="37"/>
       <c r="J219" s="38"/>
-      <c r="K219" s="71"/>
+      <c r="K219" s="70"/>
       <c r="L219" s="38"/>
       <c r="M219" s="38"/>
       <c r="N219" s="38"/>
@@ -13680,7 +13682,7 @@
       <c r="P219" s="38"/>
       <c r="Q219" s="38"/>
       <c r="R219" s="39"/>
-      <c r="S219" s="68"/>
+      <c r="S219" s="67"/>
       <c r="T219" s="41"/>
     </row>
     <row r="220" ht="15" hidden="1">
@@ -13688,13 +13690,13 @@
       <c r="B220" s="34"/>
       <c r="C220" s="34"/>
       <c r="D220" s="34"/>
-      <c r="E220" s="66"/>
+      <c r="E220" s="65"/>
       <c r="F220" s="36"/>
       <c r="G220" s="37"/>
       <c r="H220" s="37"/>
       <c r="I220" s="37"/>
       <c r="J220" s="38"/>
-      <c r="K220" s="71"/>
+      <c r="K220" s="70"/>
       <c r="L220" s="38"/>
       <c r="M220" s="38"/>
       <c r="N220" s="38"/>
@@ -13702,7 +13704,7 @@
       <c r="P220" s="38"/>
       <c r="Q220" s="38"/>
       <c r="R220" s="39"/>
-      <c r="S220" s="68"/>
+      <c r="S220" s="67"/>
       <c r="T220" s="41"/>
     </row>
     <row r="221" ht="15" hidden="1">
@@ -13710,11 +13712,11 @@
       <c r="B221" s="34"/>
       <c r="C221" s="34"/>
       <c r="D221" s="34"/>
-      <c r="E221" s="66"/>
-      <c r="F221" s="69"/>
-      <c r="G221" s="69"/>
-      <c r="H221" s="70"/>
-      <c r="I221" s="70"/>
+      <c r="E221" s="65"/>
+      <c r="F221" s="68"/>
+      <c r="G221" s="68"/>
+      <c r="H221" s="69"/>
+      <c r="I221" s="69"/>
       <c r="J221" s="38"/>
       <c r="K221" s="38"/>
       <c r="L221" s="38"/>
@@ -13724,7 +13726,7 @@
       <c r="P221" s="38"/>
       <c r="Q221" s="38"/>
       <c r="R221" s="39"/>
-      <c r="S221" s="68"/>
+      <c r="S221" s="67"/>
       <c r="T221" s="41"/>
     </row>
     <row r="222" ht="15" hidden="1">
@@ -13732,11 +13734,11 @@
       <c r="B222" s="34"/>
       <c r="C222" s="34"/>
       <c r="D222" s="34"/>
-      <c r="E222" s="66"/>
-      <c r="F222" s="69"/>
-      <c r="G222" s="69"/>
-      <c r="H222" s="70"/>
-      <c r="I222" s="70"/>
+      <c r="E222" s="65"/>
+      <c r="F222" s="68"/>
+      <c r="G222" s="68"/>
+      <c r="H222" s="69"/>
+      <c r="I222" s="69"/>
       <c r="J222" s="38"/>
       <c r="K222" s="38"/>
       <c r="L222" s="38"/>
@@ -13746,7 +13748,7 @@
       <c r="P222" s="38"/>
       <c r="Q222" s="38"/>
       <c r="R222" s="39"/>
-      <c r="S222" s="68"/>
+      <c r="S222" s="67"/>
       <c r="T222" s="41"/>
     </row>
     <row r="223" ht="15" hidden="1">
@@ -13754,11 +13756,11 @@
       <c r="B223" s="34"/>
       <c r="C223" s="34"/>
       <c r="D223" s="34"/>
-      <c r="E223" s="66"/>
-      <c r="F223" s="69"/>
-      <c r="G223" s="69"/>
-      <c r="H223" s="70"/>
-      <c r="I223" s="70"/>
+      <c r="E223" s="65"/>
+      <c r="F223" s="68"/>
+      <c r="G223" s="68"/>
+      <c r="H223" s="69"/>
+      <c r="I223" s="69"/>
       <c r="J223" s="38"/>
       <c r="K223" s="38"/>
       <c r="L223" s="38"/>
@@ -13768,7 +13770,7 @@
       <c r="P223" s="38"/>
       <c r="Q223" s="38"/>
       <c r="R223" s="39"/>
-      <c r="S223" s="68"/>
+      <c r="S223" s="67"/>
       <c r="T223" s="41"/>
     </row>
     <row r="224" ht="15" hidden="1">
@@ -13776,11 +13778,11 @@
       <c r="B224" s="34"/>
       <c r="C224" s="34"/>
       <c r="D224" s="34"/>
-      <c r="E224" s="66"/>
-      <c r="F224" s="69"/>
-      <c r="G224" s="69"/>
-      <c r="H224" s="70"/>
-      <c r="I224" s="70"/>
+      <c r="E224" s="65"/>
+      <c r="F224" s="68"/>
+      <c r="G224" s="68"/>
+      <c r="H224" s="69"/>
+      <c r="I224" s="69"/>
       <c r="J224" s="38"/>
       <c r="K224" s="38"/>
       <c r="L224" s="38"/>
@@ -13790,7 +13792,7 @@
       <c r="P224" s="38"/>
       <c r="Q224" s="38"/>
       <c r="R224" s="39"/>
-      <c r="S224" s="68"/>
+      <c r="S224" s="67"/>
       <c r="T224" s="41"/>
     </row>
     <row r="225" ht="15" hidden="1">
@@ -13798,11 +13800,11 @@
       <c r="B225" s="34"/>
       <c r="C225" s="34"/>
       <c r="D225" s="34"/>
-      <c r="E225" s="66"/>
-      <c r="F225" s="69"/>
-      <c r="G225" s="69"/>
-      <c r="H225" s="70"/>
-      <c r="I225" s="70"/>
+      <c r="E225" s="65"/>
+      <c r="F225" s="68"/>
+      <c r="G225" s="68"/>
+      <c r="H225" s="69"/>
+      <c r="I225" s="69"/>
       <c r="J225" s="38"/>
       <c r="K225" s="38"/>
       <c r="L225" s="38"/>
@@ -13812,7 +13814,7 @@
       <c r="P225" s="38"/>
       <c r="Q225" s="38"/>
       <c r="R225" s="39"/>
-      <c r="S225" s="68"/>
+      <c r="S225" s="67"/>
       <c r="T225" s="41"/>
     </row>
     <row r="226" ht="15" hidden="1">
@@ -13820,11 +13822,11 @@
       <c r="B226" s="34"/>
       <c r="C226" s="34"/>
       <c r="D226" s="34"/>
-      <c r="E226" s="66"/>
-      <c r="F226" s="69"/>
-      <c r="G226" s="69"/>
-      <c r="H226" s="70"/>
-      <c r="I226" s="70"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="68"/>
+      <c r="G226" s="68"/>
+      <c r="H226" s="69"/>
+      <c r="I226" s="69"/>
       <c r="J226" s="38"/>
       <c r="K226" s="38"/>
       <c r="L226" s="38"/>
@@ -13834,7 +13836,7 @@
       <c r="P226" s="38"/>
       <c r="Q226" s="38"/>
       <c r="R226" s="39"/>
-      <c r="S226" s="68"/>
+      <c r="S226" s="67"/>
       <c r="T226" s="41"/>
     </row>
     <row r="227" ht="15" hidden="1">
@@ -13842,7 +13844,7 @@
       <c r="B227" s="34"/>
       <c r="C227" s="34"/>
       <c r="D227" s="34"/>
-      <c r="E227" s="66"/>
+      <c r="E227" s="65"/>
       <c r="F227" s="36"/>
       <c r="G227" s="37"/>
       <c r="H227" s="37"/>
@@ -13856,7 +13858,7 @@
       <c r="P227" s="38"/>
       <c r="Q227" s="38"/>
       <c r="R227" s="39"/>
-      <c r="S227" s="68"/>
+      <c r="S227" s="67"/>
       <c r="T227" s="41"/>
     </row>
     <row r="228" ht="15" hidden="1">
@@ -13864,11 +13866,11 @@
       <c r="B228" s="34"/>
       <c r="C228" s="34"/>
       <c r="D228" s="34"/>
-      <c r="E228" s="66"/>
-      <c r="F228" s="69"/>
-      <c r="G228" s="69"/>
-      <c r="H228" s="70"/>
-      <c r="I228" s="70"/>
+      <c r="E228" s="65"/>
+      <c r="F228" s="68"/>
+      <c r="G228" s="68"/>
+      <c r="H228" s="69"/>
+      <c r="I228" s="69"/>
       <c r="J228" s="38"/>
       <c r="K228" s="38"/>
       <c r="L228" s="38"/>
@@ -13878,7 +13880,7 @@
       <c r="P228" s="38"/>
       <c r="Q228" s="38"/>
       <c r="R228" s="39"/>
-      <c r="S228" s="68"/>
+      <c r="S228" s="67"/>
       <c r="T228" s="41"/>
     </row>
     <row r="229" ht="15" hidden="1">
@@ -13886,11 +13888,11 @@
       <c r="B229" s="34"/>
       <c r="C229" s="34"/>
       <c r="D229" s="34"/>
-      <c r="E229" s="66"/>
-      <c r="F229" s="69"/>
-      <c r="G229" s="69"/>
-      <c r="H229" s="70"/>
-      <c r="I229" s="70"/>
+      <c r="E229" s="65"/>
+      <c r="F229" s="68"/>
+      <c r="G229" s="68"/>
+      <c r="H229" s="69"/>
+      <c r="I229" s="69"/>
       <c r="J229" s="38"/>
       <c r="K229" s="38"/>
       <c r="L229" s="38"/>
@@ -13900,7 +13902,7 @@
       <c r="P229" s="38"/>
       <c r="Q229" s="38"/>
       <c r="R229" s="39"/>
-      <c r="S229" s="68"/>
+      <c r="S229" s="67"/>
       <c r="T229" s="41"/>
     </row>
     <row r="230" ht="15" hidden="1">
@@ -13908,11 +13910,11 @@
       <c r="B230" s="34"/>
       <c r="C230" s="34"/>
       <c r="D230" s="34"/>
-      <c r="E230" s="66"/>
-      <c r="F230" s="69"/>
-      <c r="G230" s="69"/>
-      <c r="H230" s="70"/>
-      <c r="I230" s="70"/>
+      <c r="E230" s="65"/>
+      <c r="F230" s="68"/>
+      <c r="G230" s="68"/>
+      <c r="H230" s="69"/>
+      <c r="I230" s="69"/>
       <c r="J230" s="38"/>
       <c r="K230" s="38"/>
       <c r="L230" s="38"/>
@@ -13922,7 +13924,7 @@
       <c r="P230" s="38"/>
       <c r="Q230" s="38"/>
       <c r="R230" s="39"/>
-      <c r="S230" s="68"/>
+      <c r="S230" s="67"/>
       <c r="T230" s="41"/>
     </row>
     <row r="231" ht="15" hidden="1">
@@ -13930,11 +13932,11 @@
       <c r="B231" s="34"/>
       <c r="C231" s="34"/>
       <c r="D231" s="34"/>
-      <c r="E231" s="66"/>
-      <c r="F231" s="69"/>
-      <c r="G231" s="69"/>
-      <c r="H231" s="70"/>
-      <c r="I231" s="70"/>
+      <c r="E231" s="65"/>
+      <c r="F231" s="68"/>
+      <c r="G231" s="68"/>
+      <c r="H231" s="69"/>
+      <c r="I231" s="69"/>
       <c r="J231" s="38"/>
       <c r="K231" s="38"/>
       <c r="L231" s="38"/>
@@ -13944,7 +13946,7 @@
       <c r="P231" s="38"/>
       <c r="Q231" s="38"/>
       <c r="R231" s="39"/>
-      <c r="S231" s="68"/>
+      <c r="S231" s="67"/>
       <c r="T231" s="41"/>
     </row>
     <row r="232" ht="15" hidden="1">
@@ -13952,7 +13954,7 @@
       <c r="B232" s="34"/>
       <c r="C232" s="34"/>
       <c r="D232" s="34"/>
-      <c r="E232" s="66"/>
+      <c r="E232" s="65"/>
       <c r="F232" s="36"/>
       <c r="G232" s="37"/>
       <c r="H232" s="37"/>
@@ -13966,7 +13968,7 @@
       <c r="P232" s="38"/>
       <c r="Q232" s="38"/>
       <c r="R232" s="39"/>
-      <c r="S232" s="68"/>
+      <c r="S232" s="67"/>
       <c r="T232" s="41"/>
     </row>
     <row r="233" ht="15" hidden="1">
@@ -13974,11 +13976,11 @@
       <c r="B233" s="34"/>
       <c r="C233" s="34"/>
       <c r="D233" s="34"/>
-      <c r="E233" s="66"/>
-      <c r="F233" s="69"/>
-      <c r="G233" s="69"/>
-      <c r="H233" s="70"/>
-      <c r="I233" s="70"/>
+      <c r="E233" s="65"/>
+      <c r="F233" s="68"/>
+      <c r="G233" s="68"/>
+      <c r="H233" s="69"/>
+      <c r="I233" s="69"/>
       <c r="J233" s="38"/>
       <c r="K233" s="38"/>
       <c r="L233" s="38"/>
@@ -13988,7 +13990,7 @@
       <c r="P233" s="38"/>
       <c r="Q233" s="38"/>
       <c r="R233" s="39"/>
-      <c r="S233" s="68"/>
+      <c r="S233" s="67"/>
       <c r="T233" s="41"/>
     </row>
     <row r="234" ht="15" hidden="1">
@@ -13996,7 +13998,7 @@
       <c r="B234" s="34"/>
       <c r="C234" s="34"/>
       <c r="D234" s="34"/>
-      <c r="E234" s="66"/>
+      <c r="E234" s="65"/>
       <c r="F234" s="36"/>
       <c r="G234" s="37"/>
       <c r="H234" s="37"/>
@@ -14010,7 +14012,7 @@
       <c r="P234" s="38"/>
       <c r="Q234" s="38"/>
       <c r="R234" s="39"/>
-      <c r="S234" s="68"/>
+      <c r="S234" s="67"/>
       <c r="T234" s="41"/>
     </row>
     <row r="235" ht="15" hidden="1">
@@ -14018,7 +14020,7 @@
       <c r="B235" s="34"/>
       <c r="C235" s="34"/>
       <c r="D235" s="34"/>
-      <c r="E235" s="66"/>
+      <c r="E235" s="65"/>
       <c r="F235" s="36"/>
       <c r="G235" s="37"/>
       <c r="H235" s="37"/>
@@ -14032,7 +14034,7 @@
       <c r="P235" s="38"/>
       <c r="Q235" s="38"/>
       <c r="R235" s="39"/>
-      <c r="S235" s="68"/>
+      <c r="S235" s="67"/>
       <c r="T235" s="41"/>
     </row>
     <row r="236" ht="15" hidden="1">
@@ -14040,7 +14042,7 @@
       <c r="B236" s="34"/>
       <c r="C236" s="34"/>
       <c r="D236" s="34"/>
-      <c r="E236" s="66"/>
+      <c r="E236" s="65"/>
       <c r="F236" s="36"/>
       <c r="G236" s="37"/>
       <c r="H236" s="37"/>
@@ -14054,7 +14056,7 @@
       <c r="P236" s="38"/>
       <c r="Q236" s="38"/>
       <c r="R236" s="39"/>
-      <c r="S236" s="68"/>
+      <c r="S236" s="67"/>
       <c r="T236" s="41"/>
     </row>
     <row r="237" ht="15" hidden="1">
@@ -14062,7 +14064,7 @@
       <c r="B237" s="34"/>
       <c r="C237" s="34"/>
       <c r="D237" s="34"/>
-      <c r="E237" s="66"/>
+      <c r="E237" s="65"/>
       <c r="F237" s="36"/>
       <c r="G237" s="37"/>
       <c r="H237" s="37"/>
@@ -14076,7 +14078,7 @@
       <c r="P237" s="38"/>
       <c r="Q237" s="38"/>
       <c r="R237" s="39"/>
-      <c r="S237" s="68"/>
+      <c r="S237" s="67"/>
       <c r="T237" s="41"/>
     </row>
     <row r="238" ht="15" hidden="1">
@@ -14084,7 +14086,7 @@
       <c r="B238" s="34"/>
       <c r="C238" s="34"/>
       <c r="D238" s="34"/>
-      <c r="E238" s="66"/>
+      <c r="E238" s="65"/>
       <c r="F238" s="36"/>
       <c r="G238" s="37"/>
       <c r="H238" s="37"/>
@@ -14098,7 +14100,7 @@
       <c r="P238" s="38"/>
       <c r="Q238" s="38"/>
       <c r="R238" s="39"/>
-      <c r="S238" s="68"/>
+      <c r="S238" s="67"/>
       <c r="T238" s="41"/>
     </row>
     <row r="239" ht="15" hidden="1">
@@ -14106,11 +14108,11 @@
       <c r="B239" s="34"/>
       <c r="C239" s="34"/>
       <c r="D239" s="34"/>
-      <c r="E239" s="66"/>
-      <c r="F239" s="69"/>
-      <c r="G239" s="69"/>
-      <c r="H239" s="70"/>
-      <c r="I239" s="70"/>
+      <c r="E239" s="65"/>
+      <c r="F239" s="68"/>
+      <c r="G239" s="68"/>
+      <c r="H239" s="69"/>
+      <c r="I239" s="69"/>
       <c r="J239" s="38"/>
       <c r="K239" s="38"/>
       <c r="L239" s="38"/>
@@ -14120,7 +14122,7 @@
       <c r="P239" s="38"/>
       <c r="Q239" s="38"/>
       <c r="R239" s="39"/>
-      <c r="S239" s="68"/>
+      <c r="S239" s="67"/>
       <c r="T239" s="41"/>
     </row>
     <row r="240" ht="15" hidden="1">
@@ -14128,11 +14130,11 @@
       <c r="B240" s="34"/>
       <c r="C240" s="34"/>
       <c r="D240" s="34"/>
-      <c r="E240" s="66"/>
-      <c r="F240" s="69"/>
-      <c r="G240" s="69"/>
-      <c r="H240" s="70"/>
-      <c r="I240" s="70"/>
+      <c r="E240" s="65"/>
+      <c r="F240" s="68"/>
+      <c r="G240" s="68"/>
+      <c r="H240" s="69"/>
+      <c r="I240" s="69"/>
       <c r="J240" s="38"/>
       <c r="K240" s="38"/>
       <c r="L240" s="38"/>
@@ -14142,7 +14144,7 @@
       <c r="P240" s="38"/>
       <c r="Q240" s="38"/>
       <c r="R240" s="39"/>
-      <c r="S240" s="68"/>
+      <c r="S240" s="67"/>
       <c r="T240" s="41"/>
     </row>
     <row r="241" ht="15">
@@ -18401,16 +18403,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>513</v>
       </c>
     </row>
@@ -18421,10 +18423,10 @@
       <c r="B2" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>516</v>
       </c>
     </row>
@@ -18435,10 +18437,10 @@
       <c r="B3" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>517</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="72" t="s">
         <v>518</v>
       </c>
     </row>
@@ -18449,10 +18451,10 @@
       <c r="B4" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>519</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>520</v>
       </c>
     </row>
@@ -18463,10 +18465,10 @@
       <c r="B5" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="72" t="s">
         <v>522</v>
       </c>
     </row>
@@ -18477,10 +18479,10 @@
       <c r="B6" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>523</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>524</v>
       </c>
     </row>
@@ -18491,10 +18493,10 @@
       <c r="B7" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>525</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>526</v>
       </c>
     </row>
@@ -18505,10 +18507,10 @@
       <c r="B8" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
         <v>527</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>528</v>
       </c>
     </row>
@@ -18519,10 +18521,10 @@
       <c r="B9" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>529</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>530</v>
       </c>
     </row>
@@ -18533,10 +18535,10 @@
       <c r="B10" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>532</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>533</v>
       </c>
     </row>
@@ -18547,10 +18549,10 @@
       <c r="B11" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="72">
         <v>192</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>535</v>
       </c>
     </row>
@@ -18561,10 +18563,10 @@
       <c r="B12" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <v>208</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>536</v>
       </c>
     </row>
@@ -18575,10 +18577,10 @@
       <c r="B13" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="72">
         <v>224</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="73" t="s">
         <v>537</v>
       </c>
     </row>
@@ -18589,10 +18591,10 @@
       <c r="B14" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="72">
         <v>240</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>538</v>
       </c>
     </row>
@@ -18603,10 +18605,10 @@
       <c r="B15" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="72">
         <v>256</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="73" t="s">
         <v>539</v>
       </c>
     </row>
@@ -18617,10 +18619,10 @@
       <c r="B16" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="72">
         <v>272</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="73" t="s">
         <v>540</v>
       </c>
     </row>
@@ -18631,10 +18633,10 @@
       <c r="B17" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="72">
         <v>288</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>541</v>
       </c>
     </row>
@@ -18645,10 +18647,10 @@
       <c r="B18" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="72">
         <v>304</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="73" t="s">
         <v>542</v>
       </c>
     </row>
@@ -18659,10 +18661,10 @@
       <c r="B19" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="72">
         <v>193</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="72" t="s">
         <v>544</v>
       </c>
     </row>
@@ -18673,10 +18675,10 @@
       <c r="B20" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <v>209</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>545</v>
       </c>
     </row>
@@ -18687,10 +18689,10 @@
       <c r="B21" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="72">
         <v>225</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="73" t="s">
         <v>546</v>
       </c>
     </row>
@@ -18701,10 +18703,10 @@
       <c r="B22" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="72">
         <v>241</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>547</v>
       </c>
     </row>
@@ -18715,10 +18717,10 @@
       <c r="B23" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="72">
         <v>257</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="73" t="s">
         <v>548</v>
       </c>
     </row>
@@ -18729,10 +18731,10 @@
       <c r="B24" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="72">
         <v>273</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="73" t="s">
         <v>549</v>
       </c>
     </row>
@@ -18743,10 +18745,10 @@
       <c r="B25" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="72">
         <v>289</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="73" t="s">
         <v>550</v>
       </c>
     </row>
@@ -18757,10 +18759,10 @@
       <c r="B26" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="72">
         <v>305</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="73" t="s">
         <v>551</v>
       </c>
     </row>
@@ -18771,10 +18773,10 @@
       <c r="B27" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="72">
         <v>194</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>553</v>
       </c>
     </row>
@@ -18785,10 +18787,10 @@
       <c r="B28" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="72">
         <v>210</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>554</v>
       </c>
     </row>
@@ -18799,10 +18801,10 @@
       <c r="B29" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="72">
         <v>226</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="74" t="s">
         <v>555</v>
       </c>
     </row>
@@ -18813,10 +18815,10 @@
       <c r="B30" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="72">
         <v>242</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>556</v>
       </c>
     </row>
@@ -18827,10 +18829,10 @@
       <c r="B31" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="72">
         <v>258</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="73" t="s">
         <v>557</v>
       </c>
     </row>
@@ -18841,10 +18843,10 @@
       <c r="B32" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <v>274</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="73" t="s">
         <v>558</v>
       </c>
     </row>
@@ -18855,10 +18857,10 @@
       <c r="B33" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="72">
         <v>290</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="73" t="s">
         <v>559</v>
       </c>
     </row>
@@ -18869,10 +18871,10 @@
       <c r="B34" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="72">
         <v>306</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="73" t="s">
         <v>560</v>
       </c>
     </row>
@@ -18883,10 +18885,10 @@
       <c r="B35" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="72">
         <v>195</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="72">
         <v>204</v>
       </c>
     </row>
@@ -18897,10 +18899,10 @@
       <c r="B36" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="72">
         <v>211</v>
       </c>
-      <c r="D36" s="73">
+      <c r="D36" s="72">
         <v>220</v>
       </c>
     </row>
@@ -18911,10 +18913,10 @@
       <c r="B37" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="72">
         <v>227</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="73">
         <v>236</v>
       </c>
     </row>
@@ -18925,10 +18927,10 @@
       <c r="B38" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="72">
         <v>243</v>
       </c>
-      <c r="D38" s="73">
+      <c r="D38" s="72">
         <v>252</v>
       </c>
     </row>
@@ -18939,10 +18941,10 @@
       <c r="B39" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="72">
         <v>259</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="73">
         <v>268</v>
       </c>
     </row>
@@ -18953,10 +18955,10 @@
       <c r="B40" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="72">
         <v>275</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="73">
         <v>284</v>
       </c>
     </row>
@@ -18967,10 +18969,10 @@
       <c r="B41" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="72">
         <v>291</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="73">
         <v>300</v>
       </c>
     </row>
@@ -18981,10 +18983,10 @@
       <c r="B42" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="72">
         <v>307</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="73">
         <v>316</v>
       </c>
     </row>
@@ -18995,10 +18997,10 @@
       <c r="B43" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="72">
         <v>196</v>
       </c>
-      <c r="D43" s="73">
+      <c r="D43" s="72">
         <v>207</v>
       </c>
     </row>
@@ -19009,10 +19011,10 @@
       <c r="B44" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="72">
         <v>212</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" s="72">
         <v>223</v>
       </c>
     </row>
@@ -19023,10 +19025,10 @@
       <c r="B45" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="72">
         <v>228</v>
       </c>
-      <c r="D45" s="74">
+      <c r="D45" s="73">
         <v>239</v>
       </c>
     </row>
@@ -19037,10 +19039,10 @@
       <c r="B46" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="72">
         <v>244</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="72">
         <v>255</v>
       </c>
     </row>
@@ -19051,10 +19053,10 @@
       <c r="B47" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="72">
         <v>260</v>
       </c>
-      <c r="D47" s="74">
+      <c r="D47" s="73">
         <v>271</v>
       </c>
     </row>
@@ -19065,10 +19067,10 @@
       <c r="B48" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="72">
         <v>276</v>
       </c>
-      <c r="D48" s="74">
+      <c r="D48" s="73">
         <v>287</v>
       </c>
     </row>
@@ -19079,10 +19081,10 @@
       <c r="B49" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="72">
         <v>292</v>
       </c>
-      <c r="D49" s="74">
+      <c r="D49" s="73">
         <v>303</v>
       </c>
     </row>
@@ -19093,10 +19095,10 @@
       <c r="B50" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="72">
         <v>308</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="73">
         <v>319</v>
       </c>
     </row>
